--- a/Script Generator.xlsx
+++ b/Script Generator.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="305">
   <si>
     <t>Name of Character</t>
   </si>
@@ -803,10 +803,6 @@
     <t>b, xb, or left blank</t>
   </si>
   <si>
-    <t>If you want the Sans Serif 2 font (the default) in bold or xb, you'll need to check it off under the Sans Serif 2 font column. 
-The curly and blocky fonts do not have bold/xbold versions</t>
-  </si>
-  <si>
     <t>Put an x in this column if the font size is large</t>
   </si>
   <si>
@@ -814,11 +810,6 @@
   </si>
   <si>
     <t>Put an x in this column if the animation when showing the bubble should 'bounce'</t>
-  </si>
-  <si>
-    <t>If you want the characters' "glowing" speech bubbles, checking this off without checking image or special bubble will give you that bubble.
-In-game, the only bubbles that 'bounce' are the glowing speech bubbles and special speech bubbles, not emojis or CGs
-This column gets automatically checked if the "Special Bubble" column is not blank.</t>
   </si>
   <si>
     <t>Fill this in with the name of any special speech bubbles you wish to use</t>
@@ -863,12 +854,6 @@
     <t>Works with all of the fonts, including the bold/extra bold variants</t>
   </si>
   <si>
-    <t>The default font is Sans Serif 2, so if nothing is checked that will be the font. You can only check one font at a time (otherwise just one font will 'win')</t>
-  </si>
-  <si>
-    <t>If you forget to check this off, the image will be posted inside a speech bubble (and if it's an emoji, it won't automatically play the correct sound file). In general, if the program detects that you've written "{image=" in the Dialogue column, it will automatically check this off for you.</t>
-  </si>
-  <si>
     <t>To have a character use an emoji or post a photo, the correct syntax is {image=seven wow} with nothing else in the dialogue row. You'll also want to make sure the "image" column is checked (see below)</t>
   </si>
   <si>
@@ -945,6 +930,39 @@
   </si>
   <si>
     <t>It allows you to alter a conversation based on responses.</t>
+  </si>
+  <si>
+    <t>If you forget to check this off, the image will be posted inside a speech bubble (if it's an emoji, it won't automatically play the correct sound file, and the CG won't automatically be resized or clickable). In general, if the program detects that you've written "{image=" in the Dialogue column, it will automatically check this off for you.</t>
+  </si>
+  <si>
+    <t>If you want the characters' "glowing" speech bubbles, checking this off without checking image or special bubble will give you a glowing bubble
+In-game, the only bubbles that 'bounce' are the glowing speech bubbles and special speech bubbles, not emojis or CGs
+This column gets automatically checked if the "Special Bubble" column is not blank.</t>
+  </si>
+  <si>
+    <t>it's not in the base game, but in this program you can pick your pronouns.</t>
+  </si>
+  <si>
+    <t>You said you identify as [persistent.pronoun], right?</t>
+  </si>
+  <si>
+    <t>I have one more thing I was going to show you:</t>
+  </si>
+  <si>
+    <t>You can check out script.rpy - at the start there are some variables so you know how to use pronouns when writing a script</t>
+  </si>
+  <si>
+    <t>And if you ever want to change your pronouns, just go to the profile page (currently accessed from the main menu).</t>
+  </si>
+  <si>
+    <t>So we'll use pronouns like [they]/[them] whenever we talk about you.</t>
+  </si>
+  <si>
+    <t>The default font is Sans Serif 1, so if nothing is checked that will be the font. You can only check one font at a time (otherwise just one font will 'win')</t>
+  </si>
+  <si>
+    <t>If you want the Sans Serif 1 font (the default) in bold or xb, you'll need to check it off under the Sans Serif 1 font column. 
+The curly and blocky fonts do not have bold/xbold versions</t>
   </si>
 </sst>
 </file>
@@ -1332,19 +1350,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2091,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,12 +2135,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -2152,29 +2170,29 @@
       <c r="D2" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
     <row r="3" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2264,13 +2282,13 @@
         <v>245</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="27"/>
@@ -2302,7 +2320,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -2331,13 +2349,13 @@
         <v>251</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
@@ -2365,13 +2383,13 @@
         <v>253</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="27" t="s">
@@ -2395,19 +2413,19 @@
         <v>230</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>18</v>
@@ -2431,13 +2449,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>21</v>
@@ -2465,19 +2483,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
@@ -2501,19 +2519,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="27"/>
@@ -2533,22 +2551,22 @@
       <c r="S12"/>
     </row>
     <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2652,7 +2670,7 @@
       </c>
       <c r="S1" s="54"/>
       <c r="T1" s="54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U1" s="54"/>
       <c r="V1" s="54"/>
@@ -2685,7 +2703,7 @@
         <v/>
       </c>
       <c r="Q2" s="1" t="str">
-        <f t="shared" ref="Q2:Q63" si="2">IF(A2="Seven","s",IF(A2="Yoosung","y",IF(A2="MC","m",IF(A2="Jumin","ju",IF(A2="Jaehee","ja",IF(A2="V","v",IF(A2="Rika","r",IF(A2="Saeran","sa",IF(A2="Zen","z",IF(A2="msg","""msg""",IF(A2="Unknown","u",IF(A2="Ray","ra","Unknown Character"))))))))))))</f>
+        <f t="shared" ref="Q2" si="2">IF(A2="Seven","s",IF(A2="Yoosung","y",IF(A2="MC","m",IF(A2="Jumin","ju",IF(A2="Jaehee","ja",IF(A2="V","v",IF(A2="Rika","r",IF(A2="Saeran","sa",IF(A2="Zen","z",IF(A2="msg","""msg""",IF(A2="Unknown","u",IF(A2="Ray","ra","Unknown Character"))))))))))))</f>
         <v>Unknown Character</v>
       </c>
       <c r="R2" t="str">
@@ -2693,7 +2711,7 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:S73" si="3">IF(R2&lt;&gt;"",CONCATENATE("{/", RIGHT(R2, LEN(R2) - SEARCH("=", R2) + 1)), "")</f>
+        <f t="shared" ref="S2" si="3">IF(R2&lt;&gt;"",CONCATENATE("{/", RIGHT(R2, LEN(R2) - SEARCH("=", R2) + 1)), "")</f>
         <v/>
       </c>
       <c r="T2" t="str">
@@ -14288,13 +14306,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X251"/>
+  <dimension ref="A1:X258"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14380,7 +14398,7 @@
       </c>
       <c r="S1" s="54"/>
       <c r="T1" s="54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U1" s="54"/>
       <c r="V1" s="54"/>
@@ -14451,7 +14469,9 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="41"/>
-      <c r="E3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="41"/>
       <c r="G3" s="32"/>
       <c r="H3" s="41" t="s">
@@ -14464,7 +14484,7 @@
       <c r="N3" s="41"/>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P66" si="2">IF(B3="","",CONCATENATE(Q3," """,R3,IF(K3&lt;&gt;"","{size=+10}",""),B3,IF(K3&lt;&gt;"","{/size}",""),S3,""""," ",IF(X3&lt;&gt;"",CONCATENATE(" ",X3),"")))</f>
-        <v xml:space="preserve">u "{=curly}Hello, [name] ^^{/=curly}" </v>
+        <v xml:space="preserve">u "{=sser2}Hello, [name] ^^{/=sser2}" </v>
       </c>
       <c r="Q3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -14472,11 +14492,11 @@
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R66" si="3">IF(D3="x",CONCATENATE("{=sser1",J3,"}"),IF(E3="x",CONCATENATE("{=sser2",J3,"}"),IF(F3="x",CONCATENATE("{=ser1",J3,"}"),IF(G3="x",CONCATENATE("{=ser2",J3,"}"),IF(H3="x","{=curly}",IF(I3="x","{=blocky}",""))))))</f>
-        <v>{=curly}</v>
+        <v>{=sser2}</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" si="1"/>
-        <v>{/=curly}</v>
+        <v>{/=sser2}</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T66" si="4">IF(C3&lt;&gt;"",CONCATENATE("pauseVal=",C3),"")</f>
@@ -14508,7 +14528,9 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="32"/>
+      <c r="E4" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="41"/>
       <c r="G4" s="32"/>
       <c r="H4" s="41"/>
@@ -14519,7 +14541,7 @@
       <c r="N4" s="41"/>
       <c r="P4" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "I thought you might come by." </v>
+        <v xml:space="preserve">u "{=sser2}I thought you might come by.{/=sser2}" </v>
       </c>
       <c r="Q4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -14527,11 +14549,11 @@
       </c>
       <c r="R4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -14563,7 +14585,9 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="41"/>
       <c r="G5" s="32"/>
       <c r="H5" s="41" t="s">
@@ -14579,7 +14603,7 @@
       <c r="N5" s="41"/>
       <c r="P5" t="str">
         <f t="shared" si="2"/>
-        <v>u "{=curly}You want to learn more about how to make a chatroom, right?{/=curly}"   (bounce=True)</v>
+        <v>u "{=sser2}You want to learn more about how to make a chatroom, right?{/=sser2}"   (bounce=True)</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -14587,11 +14611,11 @@
       </c>
       <c r="R5" t="str">
         <f t="shared" si="3"/>
-        <v>{=curly}</v>
+        <v>{=sser2}</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="1"/>
-        <v>{/=curly}</v>
+        <v>{/=sser2}</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="4"/>
@@ -14623,7 +14647,9 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="41"/>
       <c r="G6" s="32"/>
       <c r="H6" s="41"/>
@@ -14634,7 +14660,7 @@
       <c r="N6" s="41"/>
       <c r="P6" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "I've come to show off a few of its features." </v>
+        <v xml:space="preserve">u "{=sser2}I've come to show off a few of its features.{/=sser2}" </v>
       </c>
       <c r="Q6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -14642,11 +14668,11 @@
       </c>
       <c r="R6" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
@@ -14735,7 +14761,9 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="41"/>
       <c r="G8" s="32"/>
       <c r="H8" s="41"/>
@@ -14746,7 +14774,7 @@
       <c r="N8" s="41"/>
       <c r="P8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "Great! That's the kind of attitude I'm looking for ^^" </v>
+        <v xml:space="preserve">u "{=sser2}Great! That's the kind of attitude I'm looking for ^^{/=sser2}" </v>
       </c>
       <c r="Q8" s="1" t="str">
         <f>IF(A8="Seven","s",IF(A8="Yoosung","y",IF(A8="MC","m",IF(A8="Jumin","ju",IF(A8="Jaehee","ja",IF(A8="V","v",IF(A8="Rika","r",IF(A8="Saeran","sa",IF(A8="Zen","z",IF(A8="msg","msg",IF(A8="Unknown","u",IF(A8="Ray","ra","Unknown Character"))))))))))))</f>
@@ -14754,11 +14782,11 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
@@ -14847,7 +14875,9 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="41"/>
       <c r="G10" s="32"/>
       <c r="H10" s="41"/>
@@ -14858,7 +14888,7 @@
       <c r="N10" s="41"/>
       <c r="P10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "Don't worry! I've tried to make this as easy to use as possible." </v>
+        <v xml:space="preserve">u "{=sser2}Don't worry! I've tried to make this as easy to use as possible.{/=sser2}" </v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14866,11 +14896,11 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
@@ -14900,10 +14930,13 @@
       <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="E11" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="P11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "You can always ask me questions on my blog, {a=http://www.zentherainbowunicorn.tumblr.com}which you can find here{/a}" </v>
+        <v xml:space="preserve">u "{=sser2}You can always ask me questions on my blog, {a=http://www.zentherainbowunicorn.tumblr.com}which you can find here{/a}{/=sser2}" </v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14911,11 +14944,11 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
@@ -14945,13 +14978,10 @@
       <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L12" s="40"/>
       <c r="P12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}This project was coded in Ren'Py, so you can always check out their forums, too.{/=sser1}" </v>
+        <v xml:space="preserve">u "This project was coded in Ren'Py, so you can always check out their forums, too." </v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14959,11 +14989,11 @@
       </c>
       <c r="R12" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
@@ -14993,13 +15023,10 @@
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" s="40"/>
       <c r="P13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}Anyway, you can see what we just did there was a menu!{/=sser1}" </v>
+        <v xml:space="preserve">u "Anyway, you can see what we just did there was a menu!" </v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15007,11 +15034,11 @@
       </c>
       <c r="R13" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
@@ -15039,15 +15066,12 @@
         <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="L14" s="40"/>
       <c r="P14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}It allows you to alter a conversation based on responses.{/=sser1}" </v>
+        <v xml:space="preserve">u "It allows you to alter a conversation based on responses." </v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15055,11 +15079,11 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
@@ -15089,13 +15113,10 @@
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L15" s="40"/>
       <c r="P15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}If you take a look Example Chat.rpy, you can get an idea of how to use them.{/=sser1}" </v>
+        <v xml:space="preserve">u "If you take a look Example Chat.rpy, you can get an idea of how to use them." </v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15103,11 +15124,11 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
@@ -15137,13 +15158,10 @@
       <c r="B16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L16" s="40"/>
       <c r="P16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}You'll want to type \"call answer\" before a menu.{/=sser1}" </v>
+        <v xml:space="preserve">u "You'll want to type \"call answer\" before a menu." </v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15151,11 +15169,11 @@
       </c>
       <c r="R16" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
@@ -15185,13 +15203,10 @@
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L17" s="40"/>
       <c r="P17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">u "{=sser1}That way the answer button will show up at the bottom of the screen instead of immediately jumping to a menu.{/=sser1}" </v>
+        <v xml:space="preserve">u "That way the answer button will show up at the bottom of the screen instead of immediately jumping to a menu." </v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15199,11 +15214,11 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
@@ -15620,16 +15635,13 @@
       <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L26" s="40"/>
       <c r="M26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="2"/>
-        <v>u "{=sser1}I'll be back later ^^{/=sser1}"   (bounce=True)</v>
+        <v>u "I'll be back later ^^"   (bounce=True)</v>
       </c>
       <c r="Q26" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15637,11 +15649,11 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="4"/>
@@ -15764,13 +15776,10 @@
       <c r="C29">
         <v>0.5</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L29" s="40"/>
       <c r="P29" t="str">
         <f t="shared" si="2"/>
-        <v>s "{=sser1}O{/=sser1}"   (pauseVal=0.5)</v>
+        <v>s "O"   (pauseVal=0.5)</v>
       </c>
       <c r="Q29" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15778,11 +15787,11 @@
       </c>
       <c r="R29" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="4"/>
@@ -15815,13 +15824,10 @@
       <c r="C30">
         <v>0.1</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L30" s="40"/>
       <c r="P30" t="str">
         <f t="shared" si="2"/>
-        <v>s "{=sser1}M{/=sser1}"   (pauseVal=0.1)</v>
+        <v>s "M"   (pauseVal=0.1)</v>
       </c>
       <c r="Q30" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15829,11 +15835,11 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="4"/>
@@ -15866,13 +15872,10 @@
       <c r="C31">
         <v>0.1</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L31" s="40"/>
       <c r="P31" t="str">
         <f t="shared" si="2"/>
-        <v>s "{=sser1}G{/=sser1}"   (pauseVal=0.1)</v>
+        <v>s "G"   (pauseVal=0.1)</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15880,11 +15883,11 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="4"/>
@@ -15914,13 +15917,16 @@
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="E32" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="K32" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="40"/>
       <c r="P32" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "{size=+10}I get to explain emojis!!!{/size}" </v>
+        <v xml:space="preserve">s "{=sser2}{size=+10}I get to explain emojis!!!{/size}{/=sser2}" </v>
       </c>
       <c r="Q32" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15928,11 +15934,11 @@
       </c>
       <c r="R32" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="4"/>
@@ -16009,6 +16015,9 @@
       <c r="B34" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E34" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="K34" s="24" t="s">
         <v>18</v>
       </c>
@@ -16018,7 +16027,7 @@
       </c>
       <c r="P34" t="str">
         <f t="shared" si="2"/>
-        <v>s "{size=+10}Yay!!!{/size}"   (specBubble="spike_m")</v>
+        <v>s "{=sser2}{size=+10}Yay!!!{/size}{/=sser2}"   (specBubble="spike_m")</v>
       </c>
       <c r="Q34" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16026,11 +16035,11 @@
       </c>
       <c r="R34" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="4"/>
@@ -16060,13 +16069,10 @@
       <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L35" s="40"/>
       <c r="P35" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "{=sser1}Okay so what you wanna do is go find the right emoji in the emojis.rpy file.{/=sser1}" </v>
+        <v xml:space="preserve">s "Okay so what you wanna do is go find the right emoji in the emojis.rpy file." </v>
       </c>
       <c r="Q35" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16074,11 +16080,11 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="4"/>
@@ -16108,13 +16114,10 @@
       <c r="B36" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L36" s="40"/>
       <c r="P36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "{=sser1}Then you're gonna type {{image=seven wow} or whatever the emoji name is into the Dialogue part of the Script Generator spreadsheet{/=sser1}" </v>
+        <v xml:space="preserve">s "Then you're gonna type {{image=seven wow} or whatever the emoji name is into the Dialogue part of the Script Generator spreadsheet" </v>
       </c>
       <c r="Q36" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16122,11 +16125,11 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S36" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="4"/>
@@ -16156,13 +16159,10 @@
       <c r="B37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L37" s="40"/>
       <c r="P37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "{=sser1}The program will automatically add the right sound file for you ^^{/=sser1}" </v>
+        <v xml:space="preserve">s "The program will automatically add the right sound file for you ^^" </v>
       </c>
       <c r="Q37" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16170,11 +16170,11 @@
       </c>
       <c r="R37" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S37" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="4"/>
@@ -16348,10 +16348,13 @@
       <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="E41" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L41" s="40"/>
       <c r="P41" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "Which is probably not what you want!" </v>
+        <v xml:space="preserve">s "{=sser2}Which is probably not what you want!{/=sser2}" </v>
       </c>
       <c r="Q41" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16359,11 +16362,11 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="4"/>
@@ -16393,10 +16396,13 @@
       <c r="B42" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="E42" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L42" s="40"/>
       <c r="P42" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "You'll have to be careful to get the spelling right," </v>
+        <v xml:space="preserve">s "{=sser2}You'll have to be careful to get the spelling right,{/=sser2}" </v>
       </c>
       <c r="Q42" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16404,11 +16410,11 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="4"/>
@@ -16438,13 +16444,10 @@
       <c r="B43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L43" s="40"/>
       <c r="P43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">s "{=sser1}since otherwise you'll get an \"image not found\" message.{/=sser1}" </v>
+        <v xml:space="preserve">s "since otherwise you'll get an \"image not found\" message." </v>
       </c>
       <c r="Q43" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16452,11 +16455,11 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="3"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S43" t="str">
         <f t="shared" si="1"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="4"/>
@@ -16778,7 +16781,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="24" t="s">
@@ -16786,7 +16792,7 @@
       </c>
       <c r="P50" t="str">
         <f t="shared" si="2"/>
-        <v>s "Just select a character to see the available emojis or \"Done\" if you're finished"   (bounce=True)</v>
+        <v>s "{=sser2}Just select a character to see the available emojis or \"Done\" if you're finished{/=sser2}"   (bounce=True)</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f t="shared" si="9"/>
@@ -16794,11 +16800,11 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="4"/>
@@ -19552,12 +19558,15 @@
         <v>21</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L109" s="40"/>
       <c r="P109" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">s "The last thing I'm here to explain is how to post CGs." </v>
+        <v xml:space="preserve">s "{=sser2}The last thing I'm here to explain is how to post CGs.{/=sser2}" </v>
       </c>
       <c r="Q109" s="1" t="str">
         <f t="shared" si="17"/>
@@ -19565,11 +19574,11 @@
       </c>
       <c r="R109" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S109" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T109" t="str">
         <f t="shared" si="12"/>
@@ -19597,7 +19606,7 @@
         <v>21</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H110" s="25" t="s">
         <v>18</v>
@@ -19648,7 +19657,7 @@
         <v>21</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L111" s="40" t="s">
         <v>18</v>
@@ -19695,7 +19704,7 @@
         <v>21</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>18</v>
@@ -19746,12 +19755,15 @@
         <v>21</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L113" s="40"/>
       <c r="P113" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">s "You post these a little differently from emojis. " </v>
+        <v xml:space="preserve">s "{=sser2}You post these a little differently from emojis. {/=sser2}" </v>
       </c>
       <c r="Q113" s="1" t="str">
         <f t="shared" si="17"/>
@@ -19759,11 +19771,11 @@
       </c>
       <c r="R113" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S113" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T113" t="str">
         <f t="shared" si="12"/>
@@ -19791,7 +19803,7 @@
         <v>21</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F114" s="25" t="s">
         <v>18</v>
@@ -19839,7 +19851,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>18</v>
@@ -19887,7 +19899,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>18</v>
@@ -19935,7 +19947,7 @@
         <v>21</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>18</v>
@@ -19983,7 +19995,7 @@
         <v>21</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I118" s="24" t="s">
         <v>18</v>
@@ -20031,7 +20043,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L119" s="40"/>
       <c r="P119" t="str">
@@ -20076,14 +20088,14 @@
         <v>21</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L120" s="40"/>
       <c r="M120" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N120" s="25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P120" t="str">
         <f t="shared" si="10"/>
@@ -20127,7 +20139,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L121" s="40" t="s">
         <v>18</v>
@@ -20174,12 +20186,15 @@
         <v>21</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L122" s="40"/>
       <c r="P122" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">s "The ability to click the image/the full screen version is automatically taken care of for you." </v>
+        <v xml:space="preserve">s "{=sser2}The ability to click the image/the full screen version is automatically taken care of for you.{/=sser2}" </v>
       </c>
       <c r="Q122" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20187,11 +20202,11 @@
       </c>
       <c r="R122" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S122" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T122" t="str">
         <f t="shared" si="12"/>
@@ -20229,7 +20244,7 @@
         <v>18</v>
       </c>
       <c r="N123" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P123" t="str">
         <f t="shared" si="10"/>
@@ -20275,13 +20290,10 @@
       <c r="B124" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D124" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L124" s="40"/>
       <c r="P124" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">s "{=sser1}Let me know if you have any questions later~{/=sser1}" </v>
+        <v xml:space="preserve">s "Let me know if you have any questions later~" </v>
       </c>
       <c r="Q124" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20289,11 +20301,11 @@
       </c>
       <c r="R124" t="str">
         <f t="shared" si="11"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S124" t="str">
         <f t="shared" si="18"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T124" t="str">
         <f t="shared" si="12"/>
@@ -20461,10 +20473,13 @@
       <c r="B128" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="E128" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L128" s="40"/>
       <c r="P128" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">y "I'm supposed to explain banners to you." </v>
+        <v xml:space="preserve">y "{=sser2}I'm supposed to explain banners to you.{/=sser2}" </v>
       </c>
       <c r="Q128" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20472,11 +20487,11 @@
       </c>
       <c r="R128" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S128" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T128" t="str">
         <f t="shared" si="12"/>
@@ -20506,10 +20521,13 @@
       <c r="B129" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="E129" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L129" s="40"/>
       <c r="P129" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">y "It's pretty quick, I promise!" </v>
+        <v xml:space="preserve">y "{=sser2}It's pretty quick, I promise!{/=sser2}" </v>
       </c>
       <c r="Q129" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20517,11 +20535,11 @@
       </c>
       <c r="R129" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S129" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T129" t="str">
         <f t="shared" si="12"/>
@@ -20598,41 +20616,44 @@
       <c r="B131" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="E131" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L131" s="40"/>
       <c r="P131" t="str">
-        <f t="shared" ref="P131:P194" si="19">IF(B131="","",CONCATENATE(Q131," """,R131,IF(K131&lt;&gt;"","{size=+10}",""),B131,IF(K131&lt;&gt;"","{/size}",""),S131,""""," ",IF(X131&lt;&gt;"",CONCATENATE(" ",X131),"")))</f>
-        <v xml:space="preserve">y "There are four different types of banners:" </v>
+        <f t="shared" ref="P131:P201" si="19">IF(B131="","",CONCATENATE(Q131," """,R131,IF(K131&lt;&gt;"","{size=+10}",""),B131,IF(K131&lt;&gt;"","{/size}",""),S131,""""," ",IF(X131&lt;&gt;"",CONCATENATE(" ",X131),"")))</f>
+        <v xml:space="preserve">y "{=sser2}There are four different types of banners:{/=sser2}" </v>
       </c>
       <c r="Q131" s="1" t="str">
         <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="R131" t="str">
-        <f t="shared" ref="R131:R194" si="20">IF(D131="x",CONCATENATE("{=sser1",J131,"}"),IF(E131="x",CONCATENATE("{=sser2",J131,"}"),IF(F131="x",CONCATENATE("{=ser1",J131,"}"),IF(G131="x",CONCATENATE("{=ser2",J131,"}"),IF(H131="x","{=curly}",IF(I131="x","{=blocky}",""))))))</f>
-        <v/>
+        <f t="shared" ref="R131:R201" si="20">IF(D131="x",CONCATENATE("{=sser1",J131,"}"),IF(E131="x",CONCATENATE("{=sser2",J131,"}"),IF(F131="x",CONCATENATE("{=ser1",J131,"}"),IF(G131="x",CONCATENATE("{=ser2",J131,"}"),IF(H131="x","{=curly}",IF(I131="x","{=blocky}",""))))))</f>
+        <v>{=sser2}</v>
       </c>
       <c r="S131" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T131" t="str">
-        <f t="shared" ref="T131:T194" si="21">IF(C131&lt;&gt;"",CONCATENATE("pauseVal=",C131),"")</f>
+        <f t="shared" ref="T131:T201" si="21">IF(C131&lt;&gt;"",CONCATENATE("pauseVal=",C131),"")</f>
         <v/>
       </c>
       <c r="U131" t="str">
-        <f t="shared" ref="U131:U194" si="22">IF(L131&lt;&gt;"","img=True","")</f>
+        <f t="shared" ref="U131:U201" si="22">IF(L131&lt;&gt;"","img=True","")</f>
         <v/>
       </c>
       <c r="V131" t="str">
-        <f t="shared" ref="V131:V194" si="23">IF(M131&lt;&gt;"","bounce=True","")</f>
+        <f t="shared" ref="V131:V201" si="23">IF(M131&lt;&gt;"","bounce=True","")</f>
         <v/>
       </c>
       <c r="W131" t="str">
-        <f t="shared" ref="W131:W194" si="24">IF(N131&lt;&gt;"",CONCATENATE("specBubble=""",N131,""""),"")</f>
+        <f t="shared" ref="W131:W201" si="24">IF(N131&lt;&gt;"",CONCATENATE("specBubble=""",N131,""""),"")</f>
         <v/>
       </c>
       <c r="X131" t="str">
-        <f t="shared" ref="X131:X194" si="25">IF(AND(T131="",U131="",V131="",W131=""),"", CONCATENATE(" (", IF(T131&lt;&gt;"", CONCATENATE(T131, IF(OR(U131&lt;&gt;"", V131&lt;&gt;"", W131&lt;&gt;""), ", ", "")), ""), IF(U131&lt;&gt;"", CONCATENATE(U131, IF(OR(V131&lt;&gt;"",W131&lt;&gt;""),", ","")),""), IF(V131&lt;&gt;"", CONCATENATE(V131, IF(W131&lt;&gt;"",", ","")),""), IF(W131&lt;&gt;"",W131,""),")"))</f>
+        <f t="shared" ref="X131:X201" si="25">IF(AND(T131="",U131="",V131="",W131=""),"", CONCATENATE(" (", IF(T131&lt;&gt;"", CONCATENATE(T131, IF(OR(U131&lt;&gt;"", V131&lt;&gt;"", W131&lt;&gt;""), ", ", "")), ""), IF(U131&lt;&gt;"", CONCATENATE(U131, IF(OR(V131&lt;&gt;"",W131&lt;&gt;""),", ","")),""), IF(V131&lt;&gt;"", CONCATENATE(V131, IF(W131&lt;&gt;"",", ","")),""), IF(W131&lt;&gt;"",W131,""),")"))</f>
         <v/>
       </c>
     </row>
@@ -20643,16 +20664,13 @@
       <c r="B132" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D132" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L132" s="40"/>
       <c r="M132" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P132" t="str">
         <f t="shared" si="19"/>
-        <v>y "{=sser1}The lightning banner!{/=sser1}"   (bounce=True)</v>
+        <v>y "The lightning banner!"   (bounce=True)</v>
       </c>
       <c r="Q132" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20660,11 +20678,11 @@
       </c>
       <c r="R132" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S132" t="str">
         <f t="shared" si="18"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T132" t="str">
         <f t="shared" si="21"/>
@@ -20739,16 +20757,13 @@
       <c r="B134" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D134" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L134" s="40"/>
       <c r="M134" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P134" t="str">
         <f t="shared" si="19"/>
-        <v>y "{=sser1}The heart banner!{/=sser1}"   (bounce=True)</v>
+        <v>y "The heart banner!"   (bounce=True)</v>
       </c>
       <c r="Q134" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20756,11 +20771,11 @@
       </c>
       <c r="R134" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S134" t="str">
         <f t="shared" si="18"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T134" t="str">
         <f t="shared" si="21"/>
@@ -20790,13 +20805,10 @@
       <c r="B135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L135" s="40"/>
       <c r="P135" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">y "{=sser1}For happy stuff!{/=sser1}" </v>
+        <v xml:space="preserve">y "For happy stuff!" </v>
       </c>
       <c r="Q135" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20804,11 +20816,11 @@
       </c>
       <c r="R135" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S135" t="str">
         <f t="shared" si="18"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T135" t="str">
         <f t="shared" si="21"/>
@@ -20838,16 +20850,13 @@
       <c r="B136" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D136" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L136" s="40"/>
       <c r="M136" s="24" t="s">
         <v>18</v>
       </c>
       <c r="P136" t="str">
         <f t="shared" si="19"/>
-        <v>y "{=sser1}The annoy banner{/=sser1}"   (bounce=True)</v>
+        <v>y "The annoy banner"   (bounce=True)</v>
       </c>
       <c r="Q136" s="1" t="str">
         <f t="shared" si="17"/>
@@ -20855,11 +20864,11 @@
       </c>
       <c r="R136" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S136" t="str">
         <f t="shared" si="18"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T136" t="str">
         <f t="shared" si="21"/>
@@ -20895,7 +20904,7 @@
         <v xml:space="preserve">y "For when you're irritated" </v>
       </c>
       <c r="Q137" s="1" t="str">
-        <f t="shared" ref="Q137:Q200" si="26">IF(A137="Seven","s",IF(A137="Yoosung","y",IF(A137="MC","m",IF(A137="Jumin","ju",IF(A137="Jaehee","ja",IF(A137="V","v",IF(A137="Rika","r",IF(A137="Saeran","sa",IF(A137="Zen","z",IF(A137="msg","msg",IF(A137="Unknown","u",IF(A137="Ray","ra","Unknown Character"))))))))))))</f>
+        <f t="shared" ref="Q137:Q207" si="26">IF(A137="Seven","s",IF(A137="Yoosung","y",IF(A137="MC","m",IF(A137="Jumin","ju",IF(A137="Jaehee","ja",IF(A137="V","v",IF(A137="Rika","r",IF(A137="Saeran","sa",IF(A137="Zen","z",IF(A137="msg","msg",IF(A137="Unknown","u",IF(A137="Ray","ra","Unknown Character"))))))))))))</f>
         <v>y</v>
       </c>
       <c r="R137" t="str">
@@ -20934,10 +20943,13 @@
       <c r="B138" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="E138" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L138" s="40"/>
       <c r="P138" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">y "And last but not least, " </v>
+        <v xml:space="preserve">y "{=sser2}And last but not least, {/=sser2}" </v>
       </c>
       <c r="Q138" s="1" t="str">
         <f t="shared" si="26"/>
@@ -20945,11 +20957,11 @@
       </c>
       <c r="R138" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S138" t="str">
-        <f t="shared" ref="S138:S201" si="27">IF(R138&lt;&gt;"",CONCATENATE("{/", RIGHT(R138, LEN(R138) - SEARCH("=", R138) + 1)), "")</f>
-        <v/>
+        <f t="shared" ref="S138:S208" si="27">IF(R138&lt;&gt;"",CONCATENATE("{/", RIGHT(R138, LEN(R138) - SEARCH("=", R138) + 1)), "")</f>
+        <v>{/=sser2}</v>
       </c>
       <c r="T138" t="str">
         <f t="shared" si="21"/>
@@ -21078,10 +21090,13 @@
       <c r="B141" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="E141" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="L141" s="40"/>
       <c r="P141" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">y "It's for times when you're a little lost for words." </v>
+        <v xml:space="preserve">y "{=sser2}It's for times when you're a little lost for words.{/=sser2}" </v>
       </c>
       <c r="Q141" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21089,11 +21104,11 @@
       </c>
       <c r="R141" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>{=sser2}</v>
       </c>
       <c r="S141" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>{/=sser2}</v>
       </c>
       <c r="T141" t="str">
         <f t="shared" si="21"/>
@@ -21121,47 +21136,46 @@
         <v>17</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D142" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L142" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L142" s="40"/>
       <c r="P142" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">y "{=sser1}That's all from me!{/=sser1}" </v>
+        <f t="shared" ref="P142:P148" si="28">IF(B142="","",CONCATENATE(Q142," """,R142,IF(K142&lt;&gt;"","{size=+10}",""),B142,IF(K142&lt;&gt;"","{/size}",""),S142,""""," ",IF(X142&lt;&gt;"",CONCATENATE(" ",X142),"")))</f>
+        <v>y "{image=yoosung thankyou}"   (img=True)</v>
       </c>
       <c r="Q142" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="Q142:Q148" si="29">IF(A142="Seven","s",IF(A142="Yoosung","y",IF(A142="MC","m",IF(A142="Jumin","ju",IF(A142="Jaehee","ja",IF(A142="V","v",IF(A142="Rika","r",IF(A142="Saeran","sa",IF(A142="Zen","z",IF(A142="msg","msg",IF(A142="Unknown","u",IF(A142="Ray","ra","Unknown Character"))))))))))))</f>
         <v>y</v>
       </c>
       <c r="R142" t="str">
-        <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <f t="shared" ref="R142:R148" si="30">IF(D142="x",CONCATENATE("{=sser1",J142,"}"),IF(E142="x",CONCATENATE("{=sser2",J142,"}"),IF(F142="x",CONCATENATE("{=ser1",J142,"}"),IF(G142="x",CONCATENATE("{=ser2",J142,"}"),IF(H142="x","{=curly}",IF(I142="x","{=blocky}",""))))))</f>
+        <v/>
       </c>
       <c r="S142" t="str">
-        <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <f t="shared" ref="S142:S148" si="31">IF(R142&lt;&gt;"",CONCATENATE("{/", RIGHT(R142, LEN(R142) - SEARCH("=", R142) + 1)), "")</f>
+        <v/>
       </c>
       <c r="T142" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="T142:T148" si="32">IF(C142&lt;&gt;"",CONCATENATE("pauseVal=",C142),"")</f>
         <v/>
       </c>
       <c r="U142" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ref="U142:U148" si="33">IF(L142&lt;&gt;"","img=True","")</f>
+        <v>img=True</v>
       </c>
       <c r="V142" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="V142:V148" si="34">IF(M142&lt;&gt;"","bounce=True","")</f>
         <v/>
       </c>
       <c r="W142" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="W142:W148" si="35">IF(N142&lt;&gt;"",CONCATENATE("specBubble=""",N142,""""),"")</f>
         <v/>
       </c>
       <c r="X142" t="str">
-        <f t="shared" si="25"/>
-        <v/>
+        <f t="shared" ref="X142:X148" si="36">IF(AND(T142="",U142="",V142="",W142=""),"", CONCATENATE(" (", IF(T142&lt;&gt;"", CONCATENATE(T142, IF(OR(U142&lt;&gt;"", V142&lt;&gt;"", W142&lt;&gt;""), ", ", "")), ""), IF(U142&lt;&gt;"", CONCATENATE(U142, IF(OR(V142&lt;&gt;"",W142&lt;&gt;""),", ","")),""), IF(V142&lt;&gt;"", CONCATENATE(V142, IF(W142&lt;&gt;"",", ","")),""), IF(W142&lt;&gt;"",W142,""),")"))</f>
+        <v xml:space="preserve"> (img=True)</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
@@ -21169,296 +21183,301 @@
         <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="L143" s="40"/>
       <c r="P143" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">y "Good luck with the program ^^" </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">y "I have one more thing I was going to show you:" </v>
       </c>
       <c r="Q143" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>y</v>
       </c>
       <c r="R143" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S143" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T143" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U143" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V143" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W143" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X143" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L144" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="L144" s="40"/>
       <c r="P144" t="str">
-        <f t="shared" si="19"/>
-        <v>y "{image=yoosung wow}"   (img=True)</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">y "{=ser1}it's not in the base game, but in this program you can pick your pronouns.{/=ser1}" </v>
       </c>
       <c r="Q144" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>y</v>
       </c>
       <c r="R144" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S144" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T144" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U144" t="str">
-        <f t="shared" si="22"/>
-        <v>img=True</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="V144" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W144" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X144" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> (img=True)</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>168</v>
+        <v>298</v>
+      </c>
+      <c r="H145" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="L145" s="40"/>
+      <c r="M145" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="P145" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">msg "Yoosung★ has left the chatroom" </v>
+        <f t="shared" si="28"/>
+        <v>y "{=curly}You said you identify as [persistent.pronoun], right?{/=curly}"   (bounce=True, specBubble="square_m")</v>
       </c>
       <c r="Q145" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>msg</v>
+        <f t="shared" si="29"/>
+        <v>y</v>
       </c>
       <c r="R145" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>{=curly}</v>
       </c>
       <c r="S145" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="31"/>
+        <v>{/=curly}</v>
       </c>
       <c r="T145" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U145" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V145" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="34"/>
+        <v>bounce=True</v>
       </c>
       <c r="W145" t="str">
-        <f t="shared" si="24"/>
-        <v/>
+        <f t="shared" si="35"/>
+        <v>specBubble="square_m"</v>
       </c>
       <c r="X145" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="square_m")</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="L146" s="40"/>
+      <c r="M146" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="P146" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">msg "Zen has entered the chatroom" </v>
+        <f t="shared" si="28"/>
+        <v>y "So we'll use pronouns like [they]/[them] whenever we talk about you."   (bounce=True)</v>
       </c>
       <c r="Q146" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>msg</v>
+        <f t="shared" si="29"/>
+        <v>y</v>
       </c>
       <c r="R146" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T146" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U146" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V146" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="34"/>
+        <v>bounce=True</v>
       </c>
       <c r="W146" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X146" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> (bounce=True)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L147" s="40" t="s">
-        <v>18</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="L147" s="40"/>
       <c r="P147" t="str">
-        <f t="shared" si="19"/>
-        <v>z "{image=zen wink}"   (img=True)</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">y "You can check out script.rpy - at the start there are some variables so you know how to use pronouns when writing a script" </v>
       </c>
       <c r="Q147" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>z</v>
+        <f t="shared" si="29"/>
+        <v>y</v>
       </c>
       <c r="R147" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="T147" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U147" t="str">
-        <f t="shared" si="22"/>
-        <v>img=True</v>
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="V147" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W147" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X147" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> (img=True)</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="L148" s="40"/>
-      <c r="M148" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="P148" t="str">
-        <f t="shared" si="19"/>
-        <v>z "{=curly}Hey cutie ^^{/=curly}"   (bounce=True)</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">y "And if you ever want to change your pronouns, just go to the profile page (currently accessed from the main menu)." </v>
       </c>
       <c r="Q148" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>z</v>
+        <f t="shared" si="29"/>
+        <v>y</v>
       </c>
       <c r="R148" t="str">
-        <f t="shared" si="20"/>
-        <v>{=curly}</v>
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="S148" t="str">
-        <f t="shared" si="27"/>
-        <v>{/=curly}</v>
+        <f t="shared" si="31"/>
+        <v/>
       </c>
       <c r="T148" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U148" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V148" t="str">
-        <f t="shared" si="23"/>
-        <v>bounce=True</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="W148" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X148" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True)</v>
+        <f t="shared" si="36"/>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L149" s="40"/>
       <c r="P149" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "I'm here to explain heart icons!" </v>
+        <v xml:space="preserve">y "That's all from me!" </v>
       </c>
       <c r="Q149" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>z</v>
+        <v>y</v>
       </c>
       <c r="R149" t="str">
         <f t="shared" si="20"/>
@@ -21491,30 +21510,27 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="L150" s="40"/>
       <c r="P150" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser2}They look like this:{/=sser2}" </v>
+        <v xml:space="preserve">y "Good luck with the program ^^" </v>
       </c>
       <c r="Q150" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>z</v>
+        <v>y</v>
       </c>
       <c r="R150" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser2}</v>
+        <v/>
       </c>
       <c r="S150" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser2}</v>
+        <v/>
       </c>
       <c r="T150" t="str">
         <f t="shared" si="21"/>
@@ -21539,30 +21555,29 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E151" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L151" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L151" s="40"/>
       <c r="P151" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser2}And each character has a different one{/=sser2}" </v>
+        <v>y "{image=yoosung wow}"   (img=True)</v>
       </c>
       <c r="Q151" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>z</v>
+        <v>y</v>
       </c>
       <c r="R151" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser2}</v>
+        <v/>
       </c>
       <c r="S151" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser2}</v>
+        <v/>
       </c>
       <c r="T151" t="str">
         <f t="shared" si="21"/>
@@ -21570,7 +21585,7 @@
       </c>
       <c r="U151" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>img=True</v>
       </c>
       <c r="V151" t="str">
         <f t="shared" si="23"/>
@@ -21582,38 +21597,32 @@
       </c>
       <c r="X151" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v xml:space="preserve"> (img=True)</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J152" s="25" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="L152" s="40"/>
       <c r="P152" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1b}They all use the same white heart, this one{/=sser1b}" </v>
+        <v xml:space="preserve">msg "Yoosung★ has left the chatroom" </v>
       </c>
       <c r="Q152" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>z</v>
+        <v>msg</v>
       </c>
       <c r="R152" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1b}</v>
+        <v/>
       </c>
       <c r="S152" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1b}</v>
+        <v/>
       </c>
       <c r="T152" t="str">
         <f t="shared" si="21"/>
@@ -21636,32 +21645,29 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="L153" s="40"/>
       <c r="P153" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}and just recolour it depending on what argument you pass via \"call heart_icon(z)\"{/=sser1}" </v>
+        <v xml:space="preserve">msg "Zen has entered the chatroom" </v>
       </c>
       <c r="Q153" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>z</v>
+        <v>msg</v>
       </c>
       <c r="R153" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S153" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T153" t="str">
         <f t="shared" si="21"/>
@@ -21684,20 +21690,19 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L154" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L154" s="40"/>
       <c r="P154" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}You can easily add your own colours, too, by adding the character and colour to the heartcolour list in MysMe Screen Effects.rpy{/=sser1}" </v>
+        <v>z "{image=zen wink}"   (img=True)</v>
       </c>
       <c r="Q154" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21705,11 +21710,11 @@
       </c>
       <c r="R154" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S154" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T154" t="str">
         <f t="shared" si="21"/>
@@ -21717,7 +21722,7 @@
       </c>
       <c r="U154" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>img=True</v>
       </c>
       <c r="V154" t="str">
         <f t="shared" si="23"/>
@@ -21729,7 +21734,7 @@
       </c>
       <c r="X154" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v xml:space="preserve"> (img=True)</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
@@ -21737,15 +21742,18 @@
         <v>120</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I155" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H155" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L155" s="40"/>
+      <c r="M155" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="P155" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=blocky}Here are the currently available colours:{/=blocky}" </v>
+        <v>z "{=curly}Hey cutie ^^{/=curly}"   (bounce=True)</v>
       </c>
       <c r="Q155" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21753,11 +21761,11 @@
       </c>
       <c r="R155" t="str">
         <f t="shared" si="20"/>
-        <v>{=blocky}</v>
+        <v>{=curly}</v>
       </c>
       <c r="S155" t="str">
         <f t="shared" si="27"/>
-        <v>{/=blocky}</v>
+        <v>{/=curly}</v>
       </c>
       <c r="T155" t="str">
         <f t="shared" si="21"/>
@@ -21769,7 +21777,7 @@
       </c>
       <c r="V155" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>bounce=True</v>
       </c>
       <c r="W155" t="str">
         <f t="shared" si="24"/>
@@ -21777,7 +21785,7 @@
       </c>
       <c r="X155" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v xml:space="preserve"> (bounce=True)</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
@@ -21785,15 +21793,12 @@
         <v>120</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L156" s="40"/>
       <c r="P156" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}Seven{/=sser1}" </v>
+        <v xml:space="preserve">z "I'm here to explain heart icons!" </v>
       </c>
       <c r="Q156" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21801,11 +21806,11 @@
       </c>
       <c r="R156" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S156" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T156" t="str">
         <f t="shared" si="21"/>
@@ -21833,15 +21838,15 @@
         <v>120</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H157" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E157" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L157" s="40"/>
       <c r="P157" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=curly}Me!{/=curly}" </v>
+        <v xml:space="preserve">z "{=sser2}They look like this:{/=sser2}" </v>
       </c>
       <c r="Q157" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21849,11 +21854,11 @@
       </c>
       <c r="R157" t="str">
         <f t="shared" si="20"/>
-        <v>{=curly}</v>
+        <v>{=sser2}</v>
       </c>
       <c r="S157" t="str">
         <f t="shared" si="27"/>
-        <v>{/=curly}</v>
+        <v>{/=sser2}</v>
       </c>
       <c r="T157" t="str">
         <f t="shared" si="21"/>
@@ -21881,15 +21886,15 @@
         <v>120</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L158" s="40"/>
       <c r="P158" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}Jaehee{/=sser1}" </v>
+        <v xml:space="preserve">z "{=sser2}And each character has a different one{/=sser2}" </v>
       </c>
       <c r="Q158" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21897,11 +21902,11 @@
       </c>
       <c r="R158" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v>{=sser2}</v>
       </c>
       <c r="S158" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=sser2}</v>
       </c>
       <c r="T158" t="str">
         <f t="shared" si="21"/>
@@ -21929,15 +21934,15 @@
         <v>120</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>18</v>
+        <v>152</v>
+      </c>
+      <c r="J159" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="L159" s="40"/>
       <c r="P159" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}Jumin{/=sser1}" </v>
+        <v xml:space="preserve">z "They all use the same white heart, this one" </v>
       </c>
       <c r="Q159" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21945,11 +21950,11 @@
       </c>
       <c r="R159" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S159" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T159" t="str">
         <f t="shared" si="21"/>
@@ -21972,20 +21977,17 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="L160" s="40"/>
       <c r="P160" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}Yoosung{/=sser1}" </v>
+        <v xml:space="preserve">z "and just recolour it depending on what argument you pass via \"call heart_icon(z)\"" </v>
       </c>
       <c r="Q160" s="1" t="str">
         <f t="shared" si="26"/>
@@ -21993,11 +21995,11 @@
       </c>
       <c r="R160" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S160" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T160" t="str">
         <f t="shared" si="21"/>
@@ -22020,20 +22022,17 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="L161" s="40"/>
       <c r="P161" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}Ray{/=sser1}" </v>
+        <v xml:space="preserve">z "You can easily add your own colours, too, by adding the character and colour to the heartcolour list in MysMe Screen Effects.rpy" </v>
       </c>
       <c r="Q161" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22041,11 +22040,11 @@
       </c>
       <c r="R161" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S161" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T161" t="str">
         <f t="shared" si="21"/>
@@ -22073,15 +22072,15 @@
         <v>120</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="I162" s="24" t="s">
         <v>18</v>
       </c>
       <c r="L162" s="40"/>
       <c r="P162" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}V{/=sser1}" </v>
+        <v xml:space="preserve">z "{=blocky}Here are the currently available colours:{/=blocky}" </v>
       </c>
       <c r="Q162" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22089,11 +22088,11 @@
       </c>
       <c r="R162" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v>{=blocky}</v>
       </c>
       <c r="S162" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=blocky}</v>
       </c>
       <c r="T162" t="str">
         <f t="shared" si="21"/>
@@ -22121,15 +22120,12 @@
         <v>120</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L163" s="40"/>
       <c r="P163" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=ser1}and then there are a few special ones{/=ser1}" </v>
+        <v xml:space="preserve">z "Seven" </v>
       </c>
       <c r="Q163" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22137,11 +22133,11 @@
       </c>
       <c r="R163" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S163" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T163" t="str">
         <f t="shared" si="21"/>
@@ -22164,20 +22160,20 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D164" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H164" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L164" s="40"/>
       <c r="P164" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}The white heart I mentioned before (tied to the username 'Unknown'){/=sser1}" </v>
+        <v xml:space="preserve">z "{=curly}Me!{/=curly}" </v>
       </c>
       <c r="Q164" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22185,11 +22181,11 @@
       </c>
       <c r="R164" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v>{=curly}</v>
       </c>
       <c r="S164" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=curly}</v>
       </c>
       <c r="T164" t="str">
         <f t="shared" si="21"/>
@@ -22212,20 +22208,17 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="L165" s="40"/>
       <c r="P165" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}You can also get this heart by passing heart_icon the short form for Saeran (sa or \"Sae\"){/=sser1}" </v>
+        <v xml:space="preserve">z "Jaehee" </v>
       </c>
       <c r="Q165" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22233,11 +22226,11 @@
       </c>
       <c r="R165" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S165" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T165" t="str">
         <f t="shared" si="21"/>
@@ -22265,12 +22258,12 @@
         <v>120</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="L166" s="40"/>
       <c r="P166" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "And then there is this heart" </v>
+        <v xml:space="preserve">z "Jumin" </v>
       </c>
       <c r="Q166" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22310,12 +22303,12 @@
         <v>120</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="L167" s="40"/>
       <c r="P167" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "which is for Rika, but isn't found in-game" </v>
+        <v xml:space="preserve">z "Yoosung" </v>
       </c>
       <c r="Q167" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22350,20 +22343,17 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="L168" s="40"/>
       <c r="P168" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}The last thing I'm here to explain is the 'heartbreak' icon{/=sser1}" </v>
+        <v xml:space="preserve">z "Ray" </v>
       </c>
       <c r="Q168" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22371,11 +22361,11 @@
       </c>
       <c r="R168" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S168" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T168" t="str">
         <f t="shared" si="21"/>
@@ -22398,20 +22388,17 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L169" s="40"/>
       <c r="P169" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}It works the same as the regular heart icons -- just add a colour to the heartcolour list and call \"heart_break\" with that character{/=sser1}" </v>
+        <v xml:space="preserve">z "V" </v>
       </c>
       <c r="Q169" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22419,11 +22406,11 @@
       </c>
       <c r="R169" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S169" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T169" t="str">
         <f t="shared" si="21"/>
@@ -22451,7 +22438,7 @@
         <v>120</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F170" s="25" t="s">
         <v>18</v>
@@ -22459,7 +22446,7 @@
       <c r="L170" s="40"/>
       <c r="P170" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=ser1}It will automatically colour itself{/=ser1}" </v>
+        <v xml:space="preserve">z "{=ser1}and then there are a few special ones{/=ser1}" </v>
       </c>
       <c r="Q170" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22494,17 +22481,17 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L171" s="40"/>
       <c r="P171" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "They look like this!" </v>
+        <v xml:space="preserve">z "The white heart I mentioned before (tied to the username 'Unknown')" </v>
       </c>
       <c r="Q171" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22544,15 +22531,12 @@
         <v>120</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L172" s="40"/>
-      <c r="M172" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="P172" t="str">
         <f t="shared" si="19"/>
-        <v>z "But you don't really want to hurt any of our feelings, right?"   (bounce=True)</v>
+        <v xml:space="preserve">z "You can also get this heart by passing heart_icon the short form for Saeran (sa or \"Sae\")" </v>
       </c>
       <c r="Q172" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22576,7 +22560,7 @@
       </c>
       <c r="V172" t="str">
         <f t="shared" si="23"/>
-        <v>bounce=True</v>
+        <v/>
       </c>
       <c r="W172" t="str">
         <f t="shared" si="24"/>
@@ -22584,7 +22568,7 @@
       </c>
       <c r="X172" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True)</v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
@@ -22592,14 +22576,12 @@
         <v>120</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L173" s="40" t="s">
-        <v>18</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="L173" s="40"/>
       <c r="P173" t="str">
         <f t="shared" si="19"/>
-        <v>z "{image=zen happy}"   (img=True)</v>
+        <v xml:space="preserve">z "And then there is this heart" </v>
       </c>
       <c r="Q173" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22619,7 +22601,7 @@
       </c>
       <c r="U173" t="str">
         <f t="shared" si="22"/>
-        <v>img=True</v>
+        <v/>
       </c>
       <c r="V173" t="str">
         <f t="shared" si="23"/>
@@ -22631,23 +22613,20 @@
       </c>
       <c r="X173" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (img=True)</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F174" s="25" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="L174" s="40"/>
       <c r="P174" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=ser1}The program automatically tallies the heart points you've earned during a chatroom and displays the total after you hit Save&amp;Exit.{/=ser1}" </v>
+        <v xml:space="preserve">z "which is for Rika, but isn't found in-game" </v>
       </c>
       <c r="Q174" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22655,11 +22634,11 @@
       </c>
       <c r="R174" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S174" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T174" t="str">
         <f t="shared" si="21"/>
@@ -22687,15 +22666,12 @@
         <v>120</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="L175" s="40"/>
       <c r="P175" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}It keeps track of both the total points earned during a chatroom,{/=sser1}" </v>
+        <v xml:space="preserve">z "The last thing I'm here to explain is the 'heartbreak' icon" </v>
       </c>
       <c r="Q175" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22703,11 +22679,11 @@
       </c>
       <c r="R175" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S175" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T175" t="str">
         <f t="shared" si="21"/>
@@ -22730,20 +22706,17 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="L176" s="40"/>
       <c r="P176" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=sser1}as well as how many points you have with each individual character{/=sser1}" </v>
+        <v xml:space="preserve">z "It works the same as the regular heart icons -- just add a colour to the heartcolour list and call \"heart_break\" with that character" </v>
       </c>
       <c r="Q176" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22751,11 +22724,11 @@
       </c>
       <c r="R176" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S176" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T176" t="str">
         <f t="shared" si="21"/>
@@ -22783,21 +22756,15 @@
         <v>120</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H177" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L177" s="40"/>
-      <c r="M177" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N177" s="25" t="s">
-        <v>289</v>
-      </c>
       <c r="P177" t="str">
         <f t="shared" si="19"/>
-        <v>z "{=curly}Just to keep the door open for other uses ^^{/=curly}"   (bounce=True, specBubble="round_m")</v>
+        <v xml:space="preserve">z "{=ser1}It will automatically colour itself{/=ser1}" </v>
       </c>
       <c r="Q177" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22805,11 +22772,11 @@
       </c>
       <c r="R177" t="str">
         <f t="shared" si="20"/>
-        <v>{=curly}</v>
+        <v>{=ser1}</v>
       </c>
       <c r="S177" t="str">
         <f t="shared" si="27"/>
-        <v>{/=curly}</v>
+        <v>{/=ser1}</v>
       </c>
       <c r="T177" t="str">
         <f t="shared" si="21"/>
@@ -22821,32 +22788,28 @@
       </c>
       <c r="V177" t="str">
         <f t="shared" si="23"/>
-        <v>bounce=True</v>
+        <v/>
       </c>
       <c r="W177" t="str">
         <f t="shared" si="24"/>
-        <v>specBubble="round_m"</v>
+        <v/>
       </c>
       <c r="X177" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="round_m")</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D178" s="43"/>
-      <c r="I178" s="24" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="L178" s="40"/>
       <c r="P178" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">z "{=blocky}Also note that Ray and Saeran's heart points count towards the same character{/=blocky}" </v>
+        <v xml:space="preserve">z "They look like this!" </v>
       </c>
       <c r="Q178" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22854,11 +22817,11 @@
       </c>
       <c r="R178" t="str">
         <f t="shared" si="20"/>
-        <v>{=blocky}</v>
+        <v/>
       </c>
       <c r="S178" t="str">
         <f t="shared" si="27"/>
-        <v>{/=blocky}</v>
+        <v/>
       </c>
       <c r="T178" t="str">
         <f t="shared" si="21"/>
@@ -22881,15 +22844,12 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="L179" s="40"/>
       <c r="M179" s="24" t="s">
@@ -22897,7 +22857,7 @@
       </c>
       <c r="P179" t="str">
         <f t="shared" si="19"/>
-        <v>z "{=curly}Anyway, good luck with the rest of the program!{/=curly}"   (bounce=True)</v>
+        <v>z "But you don't really want to hurt any of our feelings, right?"   (bounce=True)</v>
       </c>
       <c r="Q179" s="1" t="str">
         <f t="shared" si="26"/>
@@ -22905,11 +22865,11 @@
       </c>
       <c r="R179" t="str">
         <f t="shared" si="20"/>
-        <v>{=curly}</v>
+        <v/>
       </c>
       <c r="S179" t="str">
         <f t="shared" si="27"/>
-        <v>{/=curly}</v>
+        <v/>
       </c>
       <c r="T179" t="str">
         <f t="shared" si="21"/>
@@ -22934,19 +22894,21 @@
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L180" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="L180" s="40" t="s">
+        <v>18</v>
+      </c>
       <c r="P180" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">msg "Zen has left the chatroom" </v>
+        <v>z "{image=zen happy}"   (img=True)</v>
       </c>
       <c r="Q180" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>msg</v>
+        <v>z</v>
       </c>
       <c r="R180" t="str">
         <f t="shared" si="20"/>
@@ -22962,7 +22924,7 @@
       </c>
       <c r="U180" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>img=True</v>
       </c>
       <c r="V180" t="str">
         <f t="shared" si="23"/>
@@ -22974,26 +22936,35 @@
       </c>
       <c r="X180" t="str">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (img=True)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="L181" s="40"/>
       <c r="P181" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v xml:space="preserve">z "{=ser1}The program automatically tallies the heart points you've earned during a chatroom and displays the total after you hit Save&amp;Exit.{/=ser1}" </v>
       </c>
       <c r="Q181" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>Unknown Character</v>
+        <v>z</v>
       </c>
       <c r="R181" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>{=ser1}</v>
       </c>
       <c r="S181" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T181" t="str">
         <f t="shared" si="21"/>
@@ -23016,21 +22987,21 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="L182" s="40"/>
       <c r="P182" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">msg "Jaehee Kang has entered the chatroom" </v>
+        <v xml:space="preserve">z "It keeps track of both the total points earned during a chatroom," </v>
       </c>
       <c r="Q182" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>msg</v>
+        <v>z</v>
       </c>
       <c r="R182" t="str">
         <f t="shared" si="20"/>
@@ -23061,32 +23032,29 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F183" s="25" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="L183" s="40"/>
       <c r="P183" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=ser1}Hello, [name].{/=ser1}" </v>
+        <v xml:space="preserve">z "as well as how many points you have with each individual character" </v>
       </c>
       <c r="Q183" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>z</v>
       </c>
       <c r="R183" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S183" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T183" t="str">
         <f t="shared" si="21"/>
@@ -23111,30 +23079,36 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F184" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="H184" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L184" s="40"/>
+      <c r="M184" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="25" t="s">
+        <v>285</v>
+      </c>
       <c r="P184" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=ser1}Mr. Han will be with us shortly. {/=ser1}" </v>
+        <v>z "{=curly}Just to keep the door open for other uses ^^{/=curly}"   (bounce=True, specBubble="round_m")</v>
       </c>
       <c r="Q184" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>z</v>
       </c>
       <c r="R184" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v>{=curly}</v>
       </c>
       <c r="S184" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v>{/=curly}</v>
       </c>
       <c r="T184" t="str">
         <f t="shared" si="21"/>
@@ -23146,40 +23120,44 @@
       </c>
       <c r="V184" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>bounce=True</v>
       </c>
       <c r="W184" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>specBubble="round_m"</v>
       </c>
       <c r="X184" t="str">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> (bounce=True, specBubble="round_m")</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>174</v>
+        <v>291</v>
+      </c>
+      <c r="D185" s="43"/>
+      <c r="I185" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L185" s="40"/>
       <c r="P185" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">msg "Jumin Han has entered the chatroom" </v>
+        <v xml:space="preserve">z "{=blocky}Also note that Ray and Saeran's heart points count towards the same character{/=blocky}" </v>
       </c>
       <c r="Q185" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>msg</v>
+        <v>z</v>
       </c>
       <c r="R185" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>{=blocky}</v>
       </c>
       <c r="S185" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>{/=blocky}</v>
       </c>
       <c r="T185" t="str">
         <f t="shared" si="21"/>
@@ -23204,10 +23182,10 @@
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="H186" s="25" t="s">
         <v>18</v>
@@ -23216,16 +23194,13 @@
       <c r="M186" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N186" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="P186" t="str">
         <f t="shared" si="19"/>
-        <v>ja "{=curly}Ah, right on time.{/=curly}"   (bounce=True, specBubble="cloud_s")</v>
+        <v>z "{=curly}Anyway, good luck with the rest of the program!{/=curly}"   (bounce=True)</v>
       </c>
       <c r="Q186" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>z</v>
       </c>
       <c r="R186" t="str">
         <f t="shared" si="20"/>
@@ -23249,39 +23224,36 @@
       </c>
       <c r="W186" t="str">
         <f t="shared" si="24"/>
-        <v>specBubble="cloud_s"</v>
+        <v/>
       </c>
       <c r="X186" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
+        <v xml:space="preserve"> (bounce=True)</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F187" s="25" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="L187" s="40"/>
       <c r="P187" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=ser1}Shall we get started then?{/=ser1}" </v>
+        <v xml:space="preserve">msg "Zen has left the chatroom" </v>
       </c>
       <c r="Q187" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>msg</v>
       </c>
       <c r="R187" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S187" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T187" t="str">
         <f t="shared" si="21"/>
@@ -23305,31 +23277,22 @@
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F188" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="L188" s="40"/>
       <c r="P188" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=ser1}...{/=ser1}" </v>
+        <v/>
       </c>
       <c r="Q188" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>Unknown Character</v>
       </c>
       <c r="R188" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S188" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T188" t="str">
         <f t="shared" si="21"/>
@@ -23354,30 +23317,27 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F189" s="25" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="L189" s="40"/>
       <c r="P189" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=ser1}Mr. Han?{/=ser1}" </v>
+        <v xml:space="preserve">msg "Jaehee Kang has entered the chatroom" </v>
       </c>
       <c r="Q189" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>msg</v>
       </c>
       <c r="R189" t="str">
         <f t="shared" si="20"/>
-        <v>{=ser1}</v>
+        <v/>
       </c>
       <c r="S189" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T189" t="str">
         <f t="shared" si="21"/>
@@ -23405,14 +23365,15 @@
         <v>121</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L190" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F190" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="L190" s="40"/>
       <c r="P190" t="str">
         <f t="shared" si="19"/>
-        <v>ja "{image=jaehee well}"   (img=True)</v>
+        <v xml:space="preserve">ja "{=ser1}Hello, [name].{/=ser1}" </v>
       </c>
       <c r="Q190" s="1" t="str">
         <f t="shared" si="26"/>
@@ -23420,11 +23381,11 @@
       </c>
       <c r="R190" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>{=ser1}</v>
       </c>
       <c r="S190" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T190" t="str">
         <f t="shared" si="21"/>
@@ -23432,7 +23393,7 @@
       </c>
       <c r="U190" t="str">
         <f t="shared" si="22"/>
-        <v>img=True</v>
+        <v/>
       </c>
       <c r="V190" t="str">
         <f t="shared" si="23"/>
@@ -23444,7 +23405,7 @@
       </c>
       <c r="X190" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (img=True)</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
@@ -23452,15 +23413,15 @@
         <v>121</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D191" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F191" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L191" s="40"/>
       <c r="P191" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">ja "{=sser1}Mr. Han.{/=sser1}" </v>
+        <v xml:space="preserve">ja "{=ser1}Mr. Han will be with us shortly. {/=ser1}" </v>
       </c>
       <c r="Q191" s="1" t="str">
         <f t="shared" si="26"/>
@@ -23468,11 +23429,11 @@
       </c>
       <c r="R191" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v>{=ser1}</v>
       </c>
       <c r="S191" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=ser1}</v>
       </c>
       <c r="T191" t="str">
         <f t="shared" si="21"/>
@@ -23497,39 +23458,27 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D192" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K192" s="24" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="L192" s="40"/>
-      <c r="M192" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N192" s="25" t="s">
-        <v>6</v>
-      </c>
       <c r="P192" t="str">
         <f t="shared" si="19"/>
-        <v>ja "{=sser1}{size=+10}MR. HAN!!{/size}{/=sser1}"   (bounce=True, specBubble="spike_m")</v>
+        <v xml:space="preserve">msg "Jumin Han has entered the chatroom" </v>
       </c>
       <c r="Q192" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ja</v>
+        <v>msg</v>
       </c>
       <c r="R192" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v/>
       </c>
       <c r="S192" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v/>
       </c>
       <c r="T192" t="str">
         <f t="shared" si="21"/>
@@ -23541,23 +23490,23 @@
       </c>
       <c r="V192" t="str">
         <f t="shared" si="23"/>
-        <v>bounce=True</v>
+        <v/>
       </c>
       <c r="W192" t="str">
         <f t="shared" si="24"/>
-        <v>specBubble="spike_m"</v>
+        <v/>
       </c>
       <c r="X192" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="spike_m")</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H193" s="25" t="s">
         <v>18</v>
@@ -23567,15 +23516,15 @@
         <v>18</v>
       </c>
       <c r="N193" s="25" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="P193" t="str">
         <f t="shared" si="19"/>
-        <v>ju "{=curly}Is something the matter?{/=curly}"   (bounce=True, specBubble="cloud_m")</v>
+        <v>ja "{=curly}Ah, right on time.{/=curly}"   (bounce=True, specBubble="cloud_s")</v>
       </c>
       <c r="Q193" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ju</v>
+        <v>ja</v>
       </c>
       <c r="R193" t="str">
         <f t="shared" si="20"/>
@@ -23599,11 +23548,11 @@
       </c>
       <c r="W193" t="str">
         <f t="shared" si="24"/>
-        <v>specBubble="cloud_m"</v>
+        <v>specBubble="cloud_s"</v>
       </c>
       <c r="X193" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_m")</v>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -23611,21 +23560,15 @@
         <v>121</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D194" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F194" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L194" s="40"/>
-      <c r="M194" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N194" s="25" t="s">
-        <v>198</v>
-      </c>
       <c r="P194" t="str">
         <f t="shared" si="19"/>
-        <v>ja "{=sser1}Oh.{/=sser1}"   (bounce=True, specBubble="sigh_s")</v>
+        <v xml:space="preserve">ja "{=ser1}Shall we get started then?{/=ser1}" </v>
       </c>
       <c r="Q194" s="1" t="str">
         <f t="shared" si="26"/>
@@ -23633,11 +23576,11 @@
       </c>
       <c r="R194" t="str">
         <f t="shared" si="20"/>
-        <v>{=sser1}</v>
+        <v>{=ser1}</v>
       </c>
       <c r="S194" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=ser1}</v>
       </c>
       <c r="T194" t="str">
         <f t="shared" si="21"/>
@@ -23649,38 +23592,38 @@
       </c>
       <c r="V194" t="str">
         <f t="shared" si="23"/>
-        <v>bounce=True</v>
+        <v/>
       </c>
       <c r="W194" t="str">
         <f t="shared" si="24"/>
-        <v>specBubble="sigh_s"</v>
+        <v/>
       </c>
       <c r="X194" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="sigh_s")</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="F195" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L195" s="40"/>
       <c r="P195" t="str">
-        <f t="shared" ref="P195:P251" si="28">IF(B195="","",CONCATENATE(Q195," """,R195,IF(K195&lt;&gt;"","{size=+10}",""),B195,IF(K195&lt;&gt;"","{/size}",""),S195,""""," ",IF(X195&lt;&gt;"",CONCATENATE(" ",X195),"")))</f>
-        <v xml:space="preserve">ja "{=ser1}You weren't responding so I thought perhaps you were asleep.{/=ser1}" </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">ja "{=ser1}...{/=ser1}" </v>
       </c>
       <c r="Q195" s="1" t="str">
         <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R195" t="str">
-        <f t="shared" ref="R195:R251" si="29">IF(D195="x",CONCATENATE("{=sser1",J195,"}"),IF(E195="x",CONCATENATE("{=sser2",J195,"}"),IF(F195="x",CONCATENATE("{=ser1",J195,"}"),IF(G195="x",CONCATENATE("{=ser2",J195,"}"),IF(H195="x","{=curly}",IF(I195="x","{=blocky}",""))))))</f>
+        <f t="shared" si="20"/>
         <v>{=ser1}</v>
       </c>
       <c r="S195" t="str">
@@ -23688,78 +23631,72 @@
         <v>{/=ser1}</v>
       </c>
       <c r="T195" t="str">
-        <f t="shared" ref="T195:T251" si="30">IF(C195&lt;&gt;"",CONCATENATE("pauseVal=",C195),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U195" t="str">
-        <f t="shared" ref="U195:U251" si="31">IF(L195&lt;&gt;"","img=True","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V195" t="str">
-        <f t="shared" ref="V195:V251" si="32">IF(M195&lt;&gt;"","bounce=True","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W195" t="str">
-        <f t="shared" ref="W195:W251" si="33">IF(N195&lt;&gt;"",CONCATENATE("specBubble=""",N195,""""),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X195" t="str">
-        <f t="shared" ref="X195:X251" si="34">IF(AND(T195="",U195="",V195="",W195=""),"", CONCATENATE(" (", IF(T195&lt;&gt;"", CONCATENATE(T195, IF(OR(U195&lt;&gt;"", V195&lt;&gt;"", W195&lt;&gt;""), ", ", "")), ""), IF(U195&lt;&gt;"", CONCATENATE(U195, IF(OR(V195&lt;&gt;"",W195&lt;&gt;""),", ","")),""), IF(V195&lt;&gt;"", CONCATENATE(V195, IF(W195&lt;&gt;"",", ","")),""), IF(W195&lt;&gt;"",W195,""),")"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D196" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F196" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L196" s="40"/>
-      <c r="M196" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N196" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="P196" t="str">
-        <f t="shared" si="28"/>
-        <v>ju "{=sser1}Elizabeth the 3rd was sleeping on my lap so I couldn't disturb her.{/=sser1}"   (bounce=True, specBubble="cloud_l")</v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">ja "{=ser1}Mr. Han?{/=ser1}" </v>
       </c>
       <c r="Q196" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ju</v>
+        <v>ja</v>
       </c>
       <c r="R196" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1}</v>
+        <f t="shared" si="20"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S196" t="str">
         <f t="shared" si="27"/>
-        <v>{/=sser1}</v>
+        <v>{/=ser1}</v>
       </c>
       <c r="T196" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U196" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V196" t="str">
-        <f t="shared" si="32"/>
-        <v>bounce=True</v>
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="W196" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="cloud_l"</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="X196" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_l")</v>
+        <f t="shared" si="25"/>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
@@ -23767,25 +23704,21 @@
         <v>121</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L197" s="40"/>
-      <c r="M197" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L197" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="N197" s="25" t="s">
-        <v>197</v>
-      </c>
       <c r="P197" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "Of course;;"   (bounce=True, specBubble="sigh_m")</v>
+        <f t="shared" si="19"/>
+        <v>ja "{image=jaehee well}"   (img=True)</v>
       </c>
       <c r="Q197" s="1" t="str">
         <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R197" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S197" t="str">
@@ -23793,24 +23726,24 @@
         <v/>
       </c>
       <c r="T197" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U197" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>img=True</v>
       </c>
       <c r="V197" t="str">
-        <f t="shared" si="32"/>
-        <v>bounce=True</v>
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="W197" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="sigh_m"</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="X197" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="sigh_m")</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> (img=True)</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
@@ -23818,70 +23751,73 @@
         <v>121</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F198" s="25" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="L198" s="40"/>
       <c r="P198" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}...As I was saying.{/=ser1}" </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">ja "Mr. Han." </v>
       </c>
       <c r="Q198" s="1" t="str">
         <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R198" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="S198" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v/>
       </c>
       <c r="T198" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U198" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V198" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W198" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X198" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="K199" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="L199" s="40"/>
       <c r="M199" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="N199" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="P199" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "We're supposed to teach [name] about some other chatroom features."   (bounce=True)</v>
+        <f t="shared" si="19"/>
+        <v>ja "{size=+10}MR. HAN!!{/size}"   (bounce=True, specBubble="spike_m")</v>
       </c>
       <c r="Q199" s="1" t="str">
         <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R199" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S199" t="str">
@@ -23889,24 +23825,24 @@
         <v/>
       </c>
       <c r="T199" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U199" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V199" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>bounce=True</v>
       </c>
       <c r="W199" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>specBubble="spike_m"</v>
       </c>
       <c r="X199" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True)</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="spike_m")</v>
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
@@ -23914,9 +23850,9 @@
         <v>28</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F200" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H200" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L200" s="40"/>
@@ -23924,43 +23860,43 @@
         <v>18</v>
       </c>
       <c r="N200" s="25" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="28"/>
-        <v>ju "{=ser1}Like the special speech bubbles?{/=ser1}"   (bounce=True, specBubble="square_m")</v>
+        <f t="shared" si="19"/>
+        <v>ju "{=curly}Is something the matter?{/=curly}"   (bounce=True, specBubble="cloud_m")</v>
       </c>
       <c r="Q200" s="1" t="str">
         <f t="shared" si="26"/>
         <v>ju</v>
       </c>
       <c r="R200" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="20"/>
+        <v>{=curly}</v>
       </c>
       <c r="S200" t="str">
         <f t="shared" si="27"/>
-        <v>{/=ser1}</v>
+        <v>{/=curly}</v>
       </c>
       <c r="T200" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U200" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V200" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>bounce=True</v>
       </c>
       <c r="W200" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="square_m"</v>
+        <f t="shared" si="24"/>
+        <v>specBubble="cloud_m"</v>
       </c>
       <c r="X200" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="square_m")</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_m")</v>
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
@@ -23968,25 +23904,25 @@
         <v>121</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L201" s="40"/>
       <c r="M201" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N201" s="25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "Yes ^^"   (bounce=True, specBubble="cloud_s")</v>
+        <f t="shared" si="19"/>
+        <v>ja "Oh."   (bounce=True, specBubble="sigh_s")</v>
       </c>
       <c r="Q201" s="1" t="str">
-        <f t="shared" ref="Q201:Q251" si="35">IF(A201="Seven","s",IF(A201="Yoosung","y",IF(A201="MC","m",IF(A201="Jumin","ju",IF(A201="Jaehee","ja",IF(A201="V","v",IF(A201="Rika","r",IF(A201="Saeran","sa",IF(A201="Zen","z",IF(A201="msg","msg",IF(A201="Unknown","u",IF(A201="Ray","ra","Unknown Character"))))))))))))</f>
+        <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S201" t="str">
@@ -23994,24 +23930,24 @@
         <v/>
       </c>
       <c r="T201" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U201" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V201" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>bounce=True</v>
       </c>
       <c r="W201" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="cloud_s"</v>
+        <f t="shared" si="24"/>
+        <v>specBubble="sigh_s"</v>
       </c>
       <c r="X201" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="sigh_s")</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -24019,95 +23955,98 @@
         <v>121</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D202" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F202" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L202" s="40"/>
       <c r="P202" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1}In the Script Generator spreadsheet, you'll see an option called \"special bubble\"{/=sser1}" </v>
+        <f t="shared" ref="P202:P258" si="37">IF(B202="","",CONCATENATE(Q202," """,R202,IF(K202&lt;&gt;"","{size=+10}",""),B202,IF(K202&lt;&gt;"","{/size}",""),S202,""""," ",IF(X202&lt;&gt;"",CONCATENATE(" ",X202),"")))</f>
+        <v xml:space="preserve">ja "{=ser1}You weren't responding so I thought perhaps you were asleep.{/=ser1}" </v>
       </c>
       <c r="Q202" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R202" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1}</v>
+        <f t="shared" ref="R202:R258" si="38">IF(D202="x",CONCATENATE("{=sser1",J202,"}"),IF(E202="x",CONCATENATE("{=sser2",J202,"}"),IF(F202="x",CONCATENATE("{=ser1",J202,"}"),IF(G202="x",CONCATENATE("{=ser2",J202,"}"),IF(H202="x","{=curly}",IF(I202="x","{=blocky}",""))))))</f>
+        <v>{=ser1}</v>
       </c>
       <c r="S202" t="str">
-        <f t="shared" ref="S202:S258" si="36">IF(R202&lt;&gt;"",CONCATENATE("{/", RIGHT(R202, LEN(R202) - SEARCH("=", R202) + 1)), "")</f>
-        <v>{/=sser1}</v>
+        <f t="shared" si="27"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T202" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="T202:T258" si="39">IF(C202&lt;&gt;"",CONCATENATE("pauseVal=",C202),"")</f>
         <v/>
       </c>
       <c r="U202" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="U202:U258" si="40">IF(L202&lt;&gt;"","img=True","")</f>
         <v/>
       </c>
       <c r="V202" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="V202:V258" si="41">IF(M202&lt;&gt;"","bounce=True","")</f>
         <v/>
       </c>
       <c r="W202" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="W202:W258" si="42">IF(N202&lt;&gt;"",CONCATENATE("specBubble=""",N202,""""),"")</f>
         <v/>
       </c>
       <c r="X202" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="X202:X258" si="43">IF(AND(T202="",U202="",V202="",W202=""),"", CONCATENATE(" (", IF(T202&lt;&gt;"", CONCATENATE(T202, IF(OR(U202&lt;&gt;"", V202&lt;&gt;"", W202&lt;&gt;""), ", ", "")), ""), IF(U202&lt;&gt;"", CONCATENATE(U202, IF(OR(V202&lt;&gt;"",W202&lt;&gt;""),", ","")),""), IF(V202&lt;&gt;"", CONCATENATE(V202, IF(W202&lt;&gt;"",", ","")),""), IF(W202&lt;&gt;"",W202,""),")"))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D203" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L203" s="40"/>
+      <c r="M203" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L203" s="40"/>
+      <c r="N203" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="P203" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1}You can look in the folder \"Bubbles/Special\" and find the correct bubble{/=sser1}" </v>
+        <f t="shared" si="37"/>
+        <v>ju "Elizabeth the 3rd was sleeping on my lap so I couldn't disturb her."   (bounce=True, specBubble="cloud_l")</v>
       </c>
       <c r="Q203" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ja</v>
+        <f t="shared" si="26"/>
+        <v>ju</v>
       </c>
       <c r="R203" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S203" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1}</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="T203" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U203" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V203" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W203" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="cloud_l"</v>
       </c>
       <c r="X203" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_l")</v>
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
@@ -24115,47 +24054,50 @@
         <v>121</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L204" s="40"/>
       <c r="M204" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="N204" s="25" t="s">
+        <v>197</v>
+      </c>
       <c r="P204" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "Most bubbles come in three sizes:"   (bounce=True)</v>
+        <f t="shared" si="37"/>
+        <v>ja "Of course;;"   (bounce=True, specBubble="sigh_m")</v>
       </c>
       <c r="Q204" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R204" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S204" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T204" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U204" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V204" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>bounce=True</v>
       </c>
       <c r="W204" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="sigh_m"</v>
       </c>
       <c r="X204" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True)</v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="sigh_m")</v>
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
@@ -24163,200 +24105,200 @@
         <v>121</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D205" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F205" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="J205" s="25" t="s">
-        <v>9</v>
       </c>
       <c r="L205" s="40"/>
       <c r="P205" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1b}small{/=sser1b}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}...As I was saying.{/=ser1}" </v>
       </c>
       <c r="Q205" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R205" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1b}</v>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S205" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1b}</v>
+        <f t="shared" si="27"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T205" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U205" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V205" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W205" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X205" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D206" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L206" s="40"/>
+      <c r="M206" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J206" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L206" s="40"/>
       <c r="P206" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1b}medium{/=sser1b}" </v>
+        <f t="shared" si="37"/>
+        <v>ja "We're supposed to teach [name] about some other chatroom features."   (bounce=True)</v>
       </c>
       <c r="Q206" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="26"/>
         <v>ja</v>
       </c>
       <c r="R206" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1b}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S206" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1b}</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="T206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U206" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V206" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X206" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True)</v>
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D207" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F207" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J207" s="25" t="s">
-        <v>9</v>
-      </c>
       <c r="L207" s="40"/>
+      <c r="M207" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N207" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="P207" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1b}and large{/=sser1b}" </v>
+        <f t="shared" si="37"/>
+        <v>ju "{=ser1}Like the special speech bubbles?{/=ser1}"   (bounce=True, specBubble="square_m")</v>
       </c>
       <c r="Q207" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ja</v>
+        <f t="shared" si="26"/>
+        <v>ju</v>
       </c>
       <c r="R207" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1b}</v>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S207" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1b}</v>
+        <f t="shared" si="27"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T207" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U207" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V207" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W207" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="square_m"</v>
       </c>
       <c r="X207" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="square_m")</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F208" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L208" s="40"/>
+      <c r="M208" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L208" s="40"/>
+      <c r="N208" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="P208" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}The text should usually resize itself to fit, but it might be finicky sometimes, since most bubbles have to be adjusted individually{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v>ja "Yes ^^"   (bounce=True, specBubble="cloud_s")</v>
       </c>
       <c r="Q208" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="Q208:Q258" si="44">IF(A208="Seven","s",IF(A208="Yoosung","y",IF(A208="MC","m",IF(A208="Jumin","ju",IF(A208="Jaehee","ja",IF(A208="V","v",IF(A208="Rika","r",IF(A208="Saeran","sa",IF(A208="Zen","z",IF(A208="msg","msg",IF(A208="Unknown","u",IF(A208="Ray","ra","Unknown Character"))))))))))))</f>
         <v>ja</v>
       </c>
       <c r="R208" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S208" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="27"/>
+        <v/>
       </c>
       <c r="T208" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U208" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V208" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W208" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="cloud_s"</v>
       </c>
       <c r="X208" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -24364,146 +24306,137 @@
         <v>121</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L209" s="40"/>
-      <c r="M209" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N209" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="P209" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "If you're having trouble like this, you might want to try a different size."   (bounce=True, specBubble="cloud_s")</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "In the Script Generator spreadsheet, you'll see an option called \"special bubble\"" </v>
       </c>
       <c r="Q209" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R209" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S209" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="S209:S258" si="45">IF(R209&lt;&gt;"",CONCATENATE("{/", RIGHT(R209, LEN(R209) - SEARCH("=", R209) + 1)), "")</f>
         <v/>
       </c>
       <c r="T209" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U209" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V209" t="str">
-        <f t="shared" si="32"/>
-        <v>bounce=True</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="W209" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="cloud_s"</v>
+        <f t="shared" si="42"/>
+        <v/>
       </c>
       <c r="X209" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
-      </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F210" s="25" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="L210" s="40"/>
       <c r="P210" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}As for screen shake,{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "You can look in the folder \"Bubbles/Special\" and find the correct bubble" </v>
       </c>
       <c r="Q210" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R210" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S210" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T210" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U210" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V210" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W210" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X210" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F211" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L211" s="40"/>
+      <c r="M211" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L211" s="40"/>
       <c r="P211" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}how you use it depends on which background you're using{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v>ja "Most bubbles come in three sizes:"   (bounce=True)</v>
       </c>
       <c r="Q211" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R211" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S211" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T211" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U211" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V211" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W211" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X211" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True)</v>
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.25">
@@ -24511,49 +24444,49 @@
         <v>121</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F212" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J212" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L212" s="40"/>
       <c r="P212" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1xb}For example, this is the \"night\" background{/=ser1xb}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=sser1b}small{/=sser1b}" </v>
       </c>
       <c r="Q212" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R212" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1xb}</v>
+        <f t="shared" si="38"/>
+        <v>{=sser1b}</v>
       </c>
       <c r="S212" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1xb}</v>
+        <f t="shared" si="45"/>
+        <v>{/=sser1b}</v>
       </c>
       <c r="T212" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U212" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V212" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -24562,46 +24495,49 @@
         <v>121</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D213" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="J213" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="L213" s="40"/>
       <c r="P213" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=sser1}So we call \"show night at shake\"{/=sser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=sser1b}medium{/=sser1b}" </v>
       </c>
       <c r="Q213" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R213" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1}</v>
+        <f t="shared" si="38"/>
+        <v>{=sser1b}</v>
       </c>
       <c r="S213" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1}</v>
+        <f t="shared" si="45"/>
+        <v>{/=sser1b}</v>
       </c>
       <c r="T213" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U213" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V213" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W213" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X213" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -24610,424 +24546,436 @@
         <v>121</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="L214" s="40"/>
-      <c r="M214" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="P214" t="str">
-        <f t="shared" si="28"/>
-        <v>ja "And it does this"   (bounce=True)</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=sser1b}and large{/=sser1b}" </v>
       </c>
       <c r="Q214" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R214" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=sser1b}</v>
       </c>
       <c r="S214" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=sser1b}</v>
       </c>
       <c r="T214" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U214" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V214" t="str">
-        <f t="shared" si="32"/>
-        <v>bounce=True</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="W214" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X214" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True)</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F215" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L215" s="40"/>
       <c r="P215" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}Lastly, you can check out all of the special bubbles present in the game.{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}The text should usually resize itself to fit, but it might be finicky sometimes, since most bubbles have to be adjusted individually{/=ser1}" </v>
       </c>
       <c r="Q215" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R215" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>{=ser1}</v>
       </c>
       <c r="S215" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>{/=ser1}</v>
       </c>
       <c r="T215" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U215" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V215" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W215" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X215" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F216" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L216" s="40"/>
+      <c r="M216" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J216" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L216" s="40"/>
+      <c r="N216" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="P216" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1xb}Just select \"Done\" when you're finished.{/=ser1xb}" </v>
+        <f t="shared" si="37"/>
+        <v>ja "If you're having trouble like this, you might want to try a different size."   (bounce=True, specBubble="cloud_s")</v>
       </c>
       <c r="Q216" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R216" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1xb}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S216" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1xb}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T216" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U216" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V216" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W216" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="cloud_s"</v>
       </c>
       <c r="X216" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_s")</v>
       </c>
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F217" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="L217" s="40"/>
       <c r="P217" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}As for screen shake,{/=ser1}" </v>
       </c>
       <c r="Q217" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R217" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S217" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T217" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U217" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V217" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W217" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X217" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F218" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L218" s="40"/>
       <c r="P218" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ju "{=ser1}That's all from us.{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}how you use it depends on which background you're using{/=ser1}" </v>
       </c>
       <c r="Q218" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ju</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R218" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>{=ser1}</v>
       </c>
       <c r="S218" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>{/=ser1}</v>
       </c>
       <c r="T218" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U218" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V218" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W218" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X218" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F219" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="J219" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="L219" s="40"/>
       <c r="P219" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ju "{=ser1}Note that currently you can only use the bubbles associated with the speaking character{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1xb}For example, this is the \"night\" background{/=ser1xb}" </v>
       </c>
       <c r="Q219" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ju</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R219" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v>{=ser1xb}</v>
       </c>
       <c r="S219" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v>{/=ser1xb}</v>
       </c>
       <c r="T219" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U219" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V219" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W219" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X219" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F220" s="25" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="L220" s="40"/>
-      <c r="M220" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N220" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="P220" t="str">
-        <f t="shared" si="28"/>
-        <v>ju "{=ser1}For example, Assistant Kang cannot use my Elizabeth the 3rd bubble.{/=ser1}"   (bounce=True, specBubble="cloud_l")</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "So we call \"show night at shake\"" </v>
       </c>
       <c r="Q220" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ju</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R220" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S220" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T220" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U220" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V220" t="str">
-        <f t="shared" si="32"/>
-        <v>bounce=True</v>
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="W220" t="str">
-        <f t="shared" si="33"/>
-        <v>specBubble="cloud_l"</v>
+        <f t="shared" si="42"/>
+        <v/>
       </c>
       <c r="X220" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True, specBubble="cloud_l")</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L221" s="40"/>
+      <c r="M221" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="P221" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ju "I must excuse myself." </v>
+        <f t="shared" si="37"/>
+        <v>ja "And it does this"   (bounce=True)</v>
       </c>
       <c r="Q221" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>ju</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R221" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S221" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T221" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U221" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V221" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W221" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X221" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True)</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="L222" s="40"/>
       <c r="P222" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">msg "Jumin Han has left the chatroom" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}Lastly, you can check out all of the special bubbles present in the game.{/=ser1}" </v>
       </c>
       <c r="Q222" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>msg</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R222" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S222" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T222" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U222" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V222" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W222" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X222" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -25036,601 +24984,601 @@
         <v>121</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F223" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="J223" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="L223" s="40"/>
       <c r="P223" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">ja "{=ser1}I'll be leaving too. Best of luck with the program.{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1xb}Just select \"Done\" when you're finished.{/=ser1xb}" </v>
       </c>
       <c r="Q223" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>ja</v>
       </c>
       <c r="R223" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v>{=ser1xb}</v>
       </c>
       <c r="S223" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v>{/=ser1xb}</v>
       </c>
       <c r="T223" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U223" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V223" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W223" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X223" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="L224" s="40"/>
       <c r="P224" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">msg "Jaehee Kang has left the chatroom" </v>
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="Q224" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>msg</v>
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
       </c>
       <c r="R224" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S224" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T224" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U224" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V224" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W224" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X224" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F225" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="L225" s="40"/>
       <c r="P225" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ju "{=ser1}That's all from us.{/=ser1}" </v>
       </c>
       <c r="Q225" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
+        <f t="shared" si="44"/>
+        <v>ju</v>
       </c>
       <c r="R225" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S225" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T225" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U225" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V225" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W225" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X225" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>30</v>
+        <v>208</v>
+      </c>
+      <c r="F226" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="L226" s="40"/>
       <c r="P226" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">msg "Unknown has entered the chatroom" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ju "{=ser1}Note that currently you can only use the bubbles associated with the speaking character{/=ser1}" </v>
       </c>
       <c r="Q226" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>msg</v>
+        <f t="shared" si="44"/>
+        <v>ju</v>
       </c>
       <c r="R226" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S226" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T226" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U226" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V226" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W226" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X226" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H227" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F227" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L227" s="40"/>
       <c r="M227" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="N227" s="25" t="s">
+        <v>8</v>
+      </c>
       <c r="P227" t="str">
-        <f t="shared" si="28"/>
-        <v>u "{=curly}You're back!{/=curly}"   (bounce=True)</v>
+        <f t="shared" si="37"/>
+        <v>ju "{=ser1}For example, Assistant Kang cannot use my Elizabeth the 3rd bubble.{/=ser1}"   (bounce=True, specBubble="cloud_l")</v>
       </c>
       <c r="Q227" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>ju</v>
       </c>
       <c r="R227" t="str">
-        <f t="shared" si="29"/>
-        <v>{=curly}</v>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S227" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=curly}</v>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T227" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U227" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V227" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>bounce=True</v>
       </c>
       <c r="W227" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="42"/>
+        <v>specBubble="cloud_l"</v>
       </c>
       <c r="X227" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (bounce=True)</v>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True, specBubble="cloud_l")</v>
       </c>
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L228" s="40"/>
       <c r="P228" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "So what did you think?" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ju "I must excuse myself." </v>
       </c>
       <c r="Q228" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>ju</v>
       </c>
       <c r="R228" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S228" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T228" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U228" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V228" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W228" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X228" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L229" s="40"/>
       <c r="P229" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "Are you ready to start making your own chatrooms?" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">msg "Jumin Han has left the chatroom" </v>
       </c>
       <c r="Q229" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>msg</v>
       </c>
       <c r="R229" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S229" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T229" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U229" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V229" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W229" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X229" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="F230" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="L230" s="40"/>
       <c r="P230" t="str">
-        <f t="shared" si="28"/>
-        <v>m "Definitely!"   (pauseVal=0)</v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">ja "{=ser1}I'll be leaving too. Best of luck with the program.{/=ser1}" </v>
       </c>
       <c r="Q230" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>m</v>
+        <f t="shared" si="44"/>
+        <v>ja</v>
       </c>
       <c r="R230" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
       </c>
       <c r="S230" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
       </c>
       <c r="T230" t="str">
-        <f t="shared" si="30"/>
-        <v>pauseVal=0</v>
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="U230" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V230" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W230" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X230" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (pauseVal=0)</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L231" s="40"/>
       <c r="P231" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "I'm glad! ^^" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">msg "Jaehee Kang has left the chatroom" </v>
       </c>
       <c r="Q231" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>msg</v>
       </c>
       <c r="R231" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S231" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T231" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U231" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V231" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W231" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X231" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
       <c r="L232" s="40"/>
       <c r="P232" t="str">
-        <f t="shared" si="28"/>
-        <v>m "I don't know if I'm ready yet..."   (pauseVal=0)</v>
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="Q232" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>m</v>
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
       </c>
       <c r="R232" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S232" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T232" t="str">
-        <f t="shared" si="30"/>
-        <v>pauseVal=0</v>
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="U232" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V232" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W232" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X232" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> (pauseVal=0)</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F233" s="25" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L233" s="40"/>
       <c r="P233" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "{=ser1}I recommend reading through the code for this chatroom and the coffee chatroom.{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">msg "Unknown has entered the chatroom" </v>
       </c>
       <c r="Q233" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>msg</v>
       </c>
       <c r="R233" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S233" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T233" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U233" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V233" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W233" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X233" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F234" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H234" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L234" s="40"/>
+      <c r="M234" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="P234" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "{=ser1}And maybe go through this example chatroom a few times and compare it with the code!{/=ser1}" </v>
+        <f t="shared" si="37"/>
+        <v>u "{=curly}You're back!{/=curly}"   (bounce=True)</v>
       </c>
       <c r="Q234" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>u</v>
       </c>
       <c r="R234" t="str">
-        <f t="shared" si="29"/>
-        <v>{=ser1}</v>
+        <f t="shared" si="38"/>
+        <v>{=curly}</v>
       </c>
       <c r="S234" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=ser1}</v>
+        <f t="shared" si="45"/>
+        <v>{/=curly}</v>
       </c>
       <c r="T234" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U234" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V234" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" si="41"/>
+        <v>bounce=True</v>
       </c>
       <c r="W234" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X234" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (bounce=True)</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D235" s="25" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="L235" s="40"/>
       <c r="P235" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "{=sser1}I've put a lot of work into this program, so any feedback is welcome!{/=sser1}" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "So what did you think?" </v>
       </c>
       <c r="Q235" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>u</v>
       </c>
       <c r="R235" t="str">
-        <f t="shared" si="29"/>
-        <v>{=sser1}</v>
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="S235" t="str">
-        <f t="shared" si="36"/>
-        <v>{/=sser1}</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="T235" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U235" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W235" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X235" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -25639,92 +25587,92 @@
         <v>29</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J236" s="25" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="L236" s="40"/>
       <c r="P236" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "And please credit me if you do use it somewhere!" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "Are you ready to start making your own chatrooms?" </v>
       </c>
       <c r="Q236" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>u</v>
       </c>
       <c r="R236" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S236" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T236" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U236" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V236" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W236" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X236" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
       </c>
       <c r="L237" s="40"/>
       <c r="P237" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "I hope you find this program helpful." </v>
+        <f t="shared" si="37"/>
+        <v>m "Definitely!"   (pauseVal=0)</v>
       </c>
       <c r="Q237" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>u</v>
+        <f t="shared" si="44"/>
+        <v>m</v>
       </c>
       <c r="R237" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S237" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T237" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="39"/>
+        <v>pauseVal=0</v>
       </c>
       <c r="U237" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V237" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W237" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X237" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (pauseVal=0)</v>
       </c>
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.25">
@@ -25732,640 +25680,967 @@
         <v>29</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L238" s="40"/>
       <c r="P238" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">u "Good luck!" </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "I'm glad! ^^" </v>
       </c>
       <c r="Q238" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>u</v>
       </c>
       <c r="R238" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="S238" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="T238" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U238" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V238" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="W238" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="X238" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>52</v>
+        <v>223</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
       </c>
       <c r="L239" s="40"/>
       <c r="P239" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
+        <v>m "I don't know if I'm ready yet..."   (pauseVal=0)</v>
+      </c>
+      <c r="Q239" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>m</v>
+      </c>
+      <c r="R239" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S239" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T239" t="str">
+        <f t="shared" si="39"/>
+        <v>pauseVal=0</v>
+      </c>
+      <c r="U239" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V239" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W239" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X239" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> (pauseVal=0)</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F240" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L240" s="40"/>
+      <c r="P240" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "{=ser1}I recommend reading through the code for this chatroom and the coffee chatroom.{/=ser1}" </v>
+      </c>
+      <c r="Q240" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R240" t="str">
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
+      </c>
+      <c r="S240" t="str">
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
+      </c>
+      <c r="T240" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U240" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V240" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W240" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X240" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F241" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L241" s="40"/>
+      <c r="P241" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "{=ser1}And maybe go through this example chatroom a few times and compare it with the code!{/=ser1}" </v>
+      </c>
+      <c r="Q241" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R241" t="str">
+        <f t="shared" si="38"/>
+        <v>{=ser1}</v>
+      </c>
+      <c r="S241" t="str">
+        <f t="shared" si="45"/>
+        <v>{/=ser1}</v>
+      </c>
+      <c r="T241" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U241" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V241" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W241" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X241" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L242" s="40"/>
+      <c r="P242" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "I've put a lot of work into this program, so any feedback is welcome!" </v>
+      </c>
+      <c r="Q242" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R242" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S242" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T242" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U242" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V242" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W242" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X242" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J243" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L243" s="40"/>
+      <c r="P243" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "And please credit me if you do use it somewhere!" </v>
+      </c>
+      <c r="Q243" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R243" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S243" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T243" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U243" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V243" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W243" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X243" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L244" s="40"/>
+      <c r="P244" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "I hope you find this program helpful." </v>
+      </c>
+      <c r="Q244" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R244" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S244" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T244" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U244" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V244" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W244" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X244" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L245" s="40"/>
+      <c r="P245" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">u "Good luck!" </v>
+      </c>
+      <c r="Q245" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>u</v>
+      </c>
+      <c r="R245" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S245" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T245" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U245" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V245" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W245" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X245" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L246" s="40"/>
+      <c r="P246" t="str">
+        <f t="shared" si="37"/>
         <v xml:space="preserve">msg "Unknown has left the chatroom" </v>
       </c>
-      <c r="Q239" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="Q246" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>msg</v>
       </c>
-      <c r="R239" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S239" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T239" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U239" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V239" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W239" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X239" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L240" s="40" t="str">
-        <f t="shared" ref="L195:L251" si="37">IF(ISNUMBER(SEARCH("{image=",B240)),"x","")</f>
-        <v/>
-      </c>
-      <c r="M240" s="24" t="str">
-        <f t="shared" ref="M195:M251" si="38">IF(N240&lt;&gt;"","x","")</f>
-        <v/>
-      </c>
-      <c r="P240" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q240" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="R246" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S246" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T246" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U246" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V246" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W246" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X246" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L247" s="40" t="str">
+        <f t="shared" ref="L247:L258" si="46">IF(ISNUMBER(SEARCH("{image=",B247)),"x","")</f>
+        <v/>
+      </c>
+      <c r="M247" s="24" t="str">
+        <f t="shared" ref="M247:M258" si="47">IF(N247&lt;&gt;"","x","")</f>
+        <v/>
+      </c>
+      <c r="P247" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q247" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R240" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S240" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T240" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U240" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V240" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W240" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X240" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L241" s="40" t="str">
+      <c r="R247" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S247" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T247" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U247" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V247" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W247" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X247" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L248" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M248" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P248" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M241" s="24" t="str">
+      <c r="Q248" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R248" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P241" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q241" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S248" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T248" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U248" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V248" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W248" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X248" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L249" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M249" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P249" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q249" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R241" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S241" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T241" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U241" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V241" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W241" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X241" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L242" s="40" t="str">
+      <c r="R249" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S249" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T249" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U249" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V249" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W249" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X249" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L250" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M250" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P250" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M242" s="24" t="str">
+      <c r="Q250" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R250" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P242" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q242" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S250" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T250" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U250" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V250" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W250" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X250" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L251" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M251" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P251" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q251" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R242" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S242" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T242" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U242" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V242" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W242" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X242" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L243" s="40" t="str">
+      <c r="R251" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S251" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T251" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U251" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V251" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W251" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X251" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L252" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M252" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P252" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M243" s="24" t="str">
+      <c r="Q252" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R252" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P243" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q243" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S252" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T252" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U252" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V252" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W252" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X252" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L253" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M253" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P253" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q253" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R243" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S243" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T243" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U243" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V243" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W243" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X243" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L244" s="40" t="str">
+      <c r="R253" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S253" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T253" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U253" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V253" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W253" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X253" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L254" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M254" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P254" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M244" s="24" t="str">
+      <c r="Q254" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R254" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P244" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q244" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S254" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T254" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U254" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V254" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W254" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X254" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L255" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M255" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P255" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q255" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R244" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S244" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T244" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U244" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V244" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W244" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X244" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L245" s="40" t="str">
+      <c r="R255" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S255" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T255" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U255" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V255" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W255" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X255" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L256" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M256" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P256" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M245" s="24" t="str">
+      <c r="Q256" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R256" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P245" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q245" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S256" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T256" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U256" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V256" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W256" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X256" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L257" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M257" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P257" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q257" s="1" t="str">
+        <f t="shared" si="44"/>
         <v>Unknown Character</v>
       </c>
-      <c r="R245" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S245" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T245" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U245" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V245" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W245" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X245" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L246" s="40" t="str">
+      <c r="R257" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="S257" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T257" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U257" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V257" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W257" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X257" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L258" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M258" s="24" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="P258" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M246" s="24" t="str">
+      <c r="Q258" s="1" t="str">
+        <f t="shared" si="44"/>
+        <v>Unknown Character</v>
+      </c>
+      <c r="R258" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P246" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q246" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R246" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S246" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T246" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U246" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V246" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W246" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X246" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L247" s="40" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M247" s="24" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="P247" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q247" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R247" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S247" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T247" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U247" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V247" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W247" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X247" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L248" s="40" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M248" s="24" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="P248" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q248" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R248" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S248" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T248" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U248" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V248" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W248" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X248" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L249" s="40" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M249" s="24" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="P249" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q249" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R249" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S249" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T249" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U249" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V249" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W249" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X249" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L250" s="40" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M250" s="24" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="P250" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q250" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R250" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S250" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T250" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U250" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V250" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W250" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X250" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="L251" s="40" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M251" s="24" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="P251" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q251" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Unknown Character</v>
-      </c>
-      <c r="R251" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S251" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="T251" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="U251" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="V251" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="W251" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X251" t="str">
-        <f t="shared" si="34"/>
+      <c r="S258" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="T258" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U258" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V258" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="W258" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="X258" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>

--- a/Script Generator.xlsx
+++ b/Script Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawna\Documents\GitHub\mysterious-messenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawna\Documents\Github\mysterious-messenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9629A0A3-9635-4047-B84C-62F0B0B27C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67C752-5E3F-4E23-8407-FBB15A4A52D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="12420" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chatroom Instructions" sheetId="9" r:id="rId1"/>
@@ -2611,7 +2611,7 @@
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2723,7 @@
       <c r="J2" s="40"/>
       <c r="K2" s="33"/>
       <c r="L2" s="40" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("{image",B2)), ISNUMBER(SEARCH(".png", B2)), ISNUMBER(SEARCH(".jpg", B2))),"x","")</f>
+        <f>IF(OR(ISNUMBER(SEARCH("{image",LOWER(B2))), ISNUMBER(SEARCH(".png", LOWER(B2))), ISNUMBER(SEARCH(".jpg", LOWER(B2))), ISNUMBER(SEARCH(".webp", LOWER(B2)))),"x","")</f>
         <v/>
       </c>
       <c r="M2" s="24" t="str">
@@ -2797,7 +2797,7 @@
       <c r="J3" s="40"/>
       <c r="K3" s="33"/>
       <c r="L3" s="40" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("{image",B3)), ISNUMBER(SEARCH(".png", B3)), ISNUMBER(SEARCH(".jpg", B3))),"x","")</f>
+        <f t="shared" ref="L3:L66" si="3">IF(OR(ISNUMBER(SEARCH("{image",LOWER(B3))), ISNUMBER(SEARCH(".png", LOWER(B3))), ISNUMBER(SEARCH(".jpg", LOWER(B3))), ISNUMBER(SEARCH(".webp", LOWER(B3)))),"x","")</f>
         <v/>
       </c>
       <c r="M3" s="24" t="str">
@@ -2806,11 +2806,11 @@
       </c>
       <c r="N3" s="40"/>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="3">IF(B3="","",CONCATENATE(Q3," """,R3,IF(K3&lt;&gt;"","{size=+10}",""),B3,IF(K3&lt;&gt;"","{/size}",""),S3,"""",IF(X3&lt;&gt;"",CONCATENATE(" ",X3),"")))</f>
+        <f t="shared" ref="P3:P66" si="4">IF(B3="","",CONCATENATE(Q3," """,R3,IF(K3&lt;&gt;"","{size=+10}",""),B3,IF(K3&lt;&gt;"","{/size}",""),S3,"""",IF(X3&lt;&gt;"",CONCATENATE(" ",X3),"")))</f>
         <v/>
       </c>
       <c r="Q3" s="1" t="str">
-        <f t="shared" ref="Q3:Q66" si="4">IF(OR(LOWER(A3)="seven", LOWER(A3)="s", LOWER(A3)="707"),"s",
+        <f t="shared" ref="Q3:Q66" si="5">IF(OR(LOWER(A3)="seven", LOWER(A3)="s", LOWER(A3)="707"),"s",
     IF(OR(LOWER(A3)="yoosung", LOWER(A3)="y"),"y",
     IF(OR(LOWER(A3)="mc", LOWER(A3)="m"),"m",
     IF(OR(LOWER(A3)="jumin", LOWER(A3)="ju"),"ju",
@@ -2824,7 +2824,7 @@
         <v>Unknown Character</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R66" si="5">IF(D3&lt;&gt;"",CONCATENATE("{=sser1",J3,"}"),IF(E3&lt;&gt;"",CONCATENATE("{=sser2",J3,"}"),IF(F3&lt;&gt;"",CONCATENATE("{=ser1",J3,"}"),IF(G3&lt;&gt;"",CONCATENATE("{=ser2",J3,"}"),IF(H3&lt;&gt;"","{=curly}",IF(I3&lt;&gt;"","{=blocky}",""))))))</f>
+        <f t="shared" ref="R3:R66" si="6">IF(D3&lt;&gt;"",CONCATENATE("{=sser1",J3,"}"),IF(E3&lt;&gt;"",CONCATENATE("{=sser2",J3,"}"),IF(F3&lt;&gt;"",CONCATENATE("{=ser1",J3,"}"),IF(G3&lt;&gt;"",CONCATENATE("{=ser2",J3,"}"),IF(H3&lt;&gt;"","{=curly}",IF(I3&lt;&gt;"","{=blocky}",""))))))</f>
         <v/>
       </c>
       <c r="S3" t="str">
@@ -2832,19 +2832,19 @@
         <v/>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T66" si="6">IF(C3&lt;&gt;"",CONCATENATE("pauseVal=",C3),"")</f>
+        <f t="shared" ref="T3:T66" si="7">IF(C3&lt;&gt;"",CONCATENATE("pauseVal=",C3),"")</f>
         <v/>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U66" si="7">IF(L3&lt;&gt;"","img=True","")</f>
+        <f t="shared" ref="U3:U66" si="8">IF(L3&lt;&gt;"","img=True","")</f>
         <v/>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V66" si="8">IF(M3&lt;&gt;"","bounce=True","")</f>
+        <f t="shared" ref="V3:V66" si="9">IF(M3&lt;&gt;"","bounce=True","")</f>
         <v/>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W66" si="9">IF(N3&lt;&gt;"",CONCATENATE("specBubble=""",N3,""""),"")</f>
+        <f t="shared" ref="W3:W66" si="10">IF(N3&lt;&gt;"",CONCATENATE("specBubble=""",N3,""""),"")</f>
         <v/>
       </c>
       <c r="X3" t="str">
@@ -2860,7 +2860,7 @@
         <v/>
       </c>
       <c r="D4" s="40" t="str">
-        <f t="shared" ref="D3:D66" si="10">IF(AND(OR(J4="b",J4="xb"),E4="", F4="", G4=""),"x","")</f>
+        <f t="shared" ref="D4:D66" si="11">IF(AND(OR(J4="b",J4="xb"),E4="", F4="", G4=""),"x","")</f>
         <v/>
       </c>
       <c r="E4" s="32"/>
@@ -2871,24 +2871,24 @@
       <c r="J4" s="41"/>
       <c r="K4" s="32"/>
       <c r="L4" s="40" t="str">
-        <f t="shared" ref="L3:L66" si="11">IF(OR(ISNUMBER(SEARCH("{image",B4)), ISNUMBER(SEARCH(".png", B4)), ISNUMBER(SEARCH(".jpg", B4))),"x","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M4" s="24" t="str">
-        <f t="shared" ref="M3:M66" si="12">IF(N4&lt;&gt;"","x","")</f>
+        <f t="shared" ref="M4:M66" si="12">IF(N4&lt;&gt;"","x","")</f>
         <v/>
       </c>
       <c r="N4" s="41"/>
       <c r="P4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S4" t="str">
@@ -2896,19 +2896,19 @@
         <v/>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X4" t="str">
@@ -2924,7 +2924,7 @@
         <v/>
       </c>
       <c r="D5" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E5" s="32"/>
@@ -2935,7 +2935,7 @@
       <c r="J5" s="41"/>
       <c r="K5" s="32"/>
       <c r="L5" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M5" s="24" t="str">
@@ -2944,15 +2944,15 @@
       </c>
       <c r="N5" s="41"/>
       <c r="P5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S5" t="str">
@@ -2960,19 +2960,19 @@
         <v/>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X5" t="str">
@@ -2988,7 +2988,7 @@
         <v/>
       </c>
       <c r="D6" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E6" s="32"/>
@@ -2999,7 +2999,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="32"/>
       <c r="L6" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M6" s="24" t="str">
@@ -3008,15 +3008,15 @@
       </c>
       <c r="N6" s="41"/>
       <c r="P6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S6" t="str">
@@ -3024,19 +3024,19 @@
         <v/>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X6" t="str">
@@ -3052,7 +3052,7 @@
         <v/>
       </c>
       <c r="D7" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E7" s="32"/>
@@ -3063,7 +3063,7 @@
       <c r="J7" s="41"/>
       <c r="K7" s="32"/>
       <c r="L7" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M7" s="24" t="str">
@@ -3072,15 +3072,15 @@
       </c>
       <c r="N7" s="41"/>
       <c r="P7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S7" t="str">
@@ -3088,19 +3088,19 @@
         <v/>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X7" t="str">
@@ -3116,7 +3116,7 @@
         <v/>
       </c>
       <c r="D8" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E8" s="32"/>
@@ -3127,7 +3127,7 @@
       <c r="J8" s="41"/>
       <c r="K8" s="32"/>
       <c r="L8" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M8" s="24" t="str">
@@ -3136,15 +3136,15 @@
       </c>
       <c r="N8" s="41"/>
       <c r="P8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S8" t="str">
@@ -3152,19 +3152,19 @@
         <v/>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X8" t="str">
@@ -3180,7 +3180,7 @@
         <v/>
       </c>
       <c r="D9" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E9" s="32"/>
@@ -3191,7 +3191,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="32"/>
       <c r="L9" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M9" s="24" t="str">
@@ -3200,15 +3200,15 @@
       </c>
       <c r="N9" s="41"/>
       <c r="P9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S9" t="str">
@@ -3216,19 +3216,19 @@
         <v/>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X9" t="str">
@@ -3244,7 +3244,7 @@
         <v/>
       </c>
       <c r="D10" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E10" s="32"/>
@@ -3255,7 +3255,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="32"/>
       <c r="L10" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="24" t="str">
@@ -3264,15 +3264,15 @@
       </c>
       <c r="N10" s="41"/>
       <c r="P10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S10" t="str">
@@ -3280,19 +3280,19 @@
         <v/>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X10" t="str">
@@ -3307,11 +3307,11 @@
         <v/>
       </c>
       <c r="D11" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L11" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M11" s="24" t="str">
@@ -3319,15 +3319,15 @@
         <v/>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S11" t="str">
@@ -3335,19 +3335,19 @@
         <v/>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X11" t="str">
@@ -3362,11 +3362,11 @@
         <v/>
       </c>
       <c r="D12" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L12" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M12" s="24" t="str">
@@ -3374,15 +3374,15 @@
         <v/>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S12" t="str">
@@ -3390,19 +3390,19 @@
         <v/>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X12" t="str">
@@ -3416,11 +3416,11 @@
         <v/>
       </c>
       <c r="D13" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L13" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M13" s="24" t="str">
@@ -3428,15 +3428,15 @@
         <v/>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S13" t="str">
@@ -3444,19 +3444,19 @@
         <v/>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X13" t="str">
@@ -3470,11 +3470,11 @@
         <v/>
       </c>
       <c r="D14" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L14" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M14" s="24" t="str">
@@ -3482,15 +3482,15 @@
         <v/>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S14" t="str">
@@ -3498,19 +3498,19 @@
         <v/>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X14" t="str">
@@ -3524,11 +3524,11 @@
         <v/>
       </c>
       <c r="D15" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L15" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M15" s="24" t="str">
@@ -3536,15 +3536,15 @@
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S15" t="str">
@@ -3552,19 +3552,19 @@
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X15" t="str">
@@ -3578,11 +3578,11 @@
         <v/>
       </c>
       <c r="D16" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L16" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M16" s="24" t="str">
@@ -3590,15 +3590,15 @@
         <v/>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S16" t="str">
@@ -3606,19 +3606,19 @@
         <v/>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X16" t="str">
@@ -3632,11 +3632,11 @@
         <v/>
       </c>
       <c r="D17" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L17" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M17" s="24" t="str">
@@ -3644,15 +3644,15 @@
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S17" t="str">
@@ -3660,19 +3660,19 @@
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X17" t="str">
@@ -3686,11 +3686,11 @@
         <v/>
       </c>
       <c r="D18" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L18" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M18" s="24" t="str">
@@ -3698,15 +3698,15 @@
         <v/>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S18" t="str">
@@ -3714,19 +3714,19 @@
         <v/>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X18" t="str">
@@ -3740,11 +3740,11 @@
         <v/>
       </c>
       <c r="D19" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L19" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M19" s="24" t="str">
@@ -3752,15 +3752,15 @@
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S19" t="str">
@@ -3768,19 +3768,19 @@
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X19" t="str">
@@ -3794,11 +3794,11 @@
         <v/>
       </c>
       <c r="D20" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L20" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M20" s="24" t="str">
@@ -3806,15 +3806,15 @@
         <v/>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S20" t="str">
@@ -3822,19 +3822,19 @@
         <v/>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X20" t="str">
@@ -3848,11 +3848,11 @@
         <v/>
       </c>
       <c r="D21" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L21" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M21" s="24" t="str">
@@ -3860,15 +3860,15 @@
         <v/>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S21" t="str">
@@ -3876,19 +3876,19 @@
         <v/>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X21" t="str">
@@ -3902,11 +3902,11 @@
         <v/>
       </c>
       <c r="D22" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L22" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M22" s="24" t="str">
@@ -3914,15 +3914,15 @@
         <v/>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S22" t="str">
@@ -3930,19 +3930,19 @@
         <v/>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X22" t="str">
@@ -3956,11 +3956,11 @@
         <v/>
       </c>
       <c r="D23" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L23" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M23" s="24" t="str">
@@ -3968,15 +3968,15 @@
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S23" t="str">
@@ -3984,19 +3984,19 @@
         <v/>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X23" t="str">
@@ -4010,11 +4010,11 @@
         <v/>
       </c>
       <c r="D24" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L24" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M24" s="24" t="str">
@@ -4022,15 +4022,15 @@
         <v/>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S24" t="str">
@@ -4038,19 +4038,19 @@
         <v/>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X24" t="str">
@@ -4064,11 +4064,11 @@
         <v/>
       </c>
       <c r="D25" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L25" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M25" s="24" t="str">
@@ -4076,15 +4076,15 @@
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S25" t="str">
@@ -4092,19 +4092,19 @@
         <v/>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X25" t="str">
@@ -4118,11 +4118,11 @@
         <v/>
       </c>
       <c r="D26" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L26" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M26" s="24" t="str">
@@ -4130,15 +4130,15 @@
         <v/>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S26" t="str">
@@ -4146,19 +4146,19 @@
         <v/>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X26" t="str">
@@ -4172,11 +4172,11 @@
         <v/>
       </c>
       <c r="D27" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L27" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M27" s="24" t="str">
@@ -4184,15 +4184,15 @@
         <v/>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S27" t="str">
@@ -4200,19 +4200,19 @@
         <v/>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X27" t="str">
@@ -4226,11 +4226,11 @@
         <v/>
       </c>
       <c r="D28" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L28" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M28" s="24" t="str">
@@ -4238,15 +4238,15 @@
         <v/>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S28" t="str">
@@ -4254,19 +4254,19 @@
         <v/>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X28" t="str">
@@ -4280,11 +4280,11 @@
         <v/>
       </c>
       <c r="D29" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L29" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M29" s="24" t="str">
@@ -4292,15 +4292,15 @@
         <v/>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S29" t="str">
@@ -4308,19 +4308,19 @@
         <v/>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X29" t="str">
@@ -4334,11 +4334,11 @@
         <v/>
       </c>
       <c r="D30" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L30" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M30" s="24" t="str">
@@ -4346,15 +4346,15 @@
         <v/>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S30" t="str">
@@ -4362,19 +4362,19 @@
         <v/>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X30" t="str">
@@ -4388,11 +4388,11 @@
         <v/>
       </c>
       <c r="D31" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L31" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M31" s="24" t="str">
@@ -4400,15 +4400,15 @@
         <v/>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S31" t="str">
@@ -4416,19 +4416,19 @@
         <v/>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X31" t="str">
@@ -4442,11 +4442,11 @@
         <v/>
       </c>
       <c r="D32" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L32" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M32" s="24" t="str">
@@ -4454,15 +4454,15 @@
         <v/>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S32" t="str">
@@ -4470,19 +4470,19 @@
         <v/>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X32" t="str">
@@ -4496,11 +4496,11 @@
         <v/>
       </c>
       <c r="D33" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L33" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M33" s="24" t="str">
@@ -4508,15 +4508,15 @@
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S33" t="str">
@@ -4524,19 +4524,19 @@
         <v/>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X33" t="str">
@@ -4550,11 +4550,11 @@
         <v/>
       </c>
       <c r="D34" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L34" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M34" s="24" t="str">
@@ -4562,15 +4562,15 @@
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S34" t="str">
@@ -4578,19 +4578,19 @@
         <v/>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X34" t="str">
@@ -4604,11 +4604,11 @@
         <v/>
       </c>
       <c r="D35" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L35" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M35" s="24" t="str">
@@ -4616,15 +4616,15 @@
         <v/>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S35" t="str">
@@ -4632,19 +4632,19 @@
         <v/>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X35" t="str">
@@ -4658,11 +4658,11 @@
         <v/>
       </c>
       <c r="D36" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L36" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M36" s="24" t="str">
@@ -4670,15 +4670,15 @@
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S36" t="str">
@@ -4686,19 +4686,19 @@
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X36" t="str">
@@ -4712,11 +4712,11 @@
         <v/>
       </c>
       <c r="D37" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L37" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M37" s="24" t="str">
@@ -4724,15 +4724,15 @@
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S37" t="str">
@@ -4740,19 +4740,19 @@
         <v/>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X37" t="str">
@@ -4766,11 +4766,11 @@
         <v/>
       </c>
       <c r="D38" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L38" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M38" s="24" t="str">
@@ -4778,15 +4778,15 @@
         <v/>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S38" t="str">
@@ -4794,19 +4794,19 @@
         <v/>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X38" t="str">
@@ -4820,11 +4820,11 @@
         <v/>
       </c>
       <c r="D39" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L39" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M39" s="24" t="str">
@@ -4832,15 +4832,15 @@
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S39" t="str">
@@ -4848,19 +4848,19 @@
         <v/>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X39" t="str">
@@ -4874,11 +4874,11 @@
         <v/>
       </c>
       <c r="D40" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L40" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M40" s="24" t="str">
@@ -4886,15 +4886,15 @@
         <v/>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S40" t="str">
@@ -4902,19 +4902,19 @@
         <v/>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X40" t="str">
@@ -4928,11 +4928,11 @@
         <v/>
       </c>
       <c r="D41" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L41" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M41" s="24" t="str">
@@ -4940,15 +4940,15 @@
         <v/>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S41" t="str">
@@ -4956,19 +4956,19 @@
         <v/>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X41" t="str">
@@ -4982,11 +4982,11 @@
         <v/>
       </c>
       <c r="D42" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L42" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M42" s="24" t="str">
@@ -4994,15 +4994,15 @@
         <v/>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S42" t="str">
@@ -5010,19 +5010,19 @@
         <v/>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X42" t="str">
@@ -5036,11 +5036,11 @@
         <v/>
       </c>
       <c r="D43" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L43" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M43" s="24" t="str">
@@ -5048,15 +5048,15 @@
         <v/>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S43" t="str">
@@ -5064,19 +5064,19 @@
         <v/>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X43" t="str">
@@ -5090,11 +5090,11 @@
         <v/>
       </c>
       <c r="D44" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L44" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M44" s="24" t="str">
@@ -5102,15 +5102,15 @@
         <v/>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S44" t="str">
@@ -5118,19 +5118,19 @@
         <v/>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X44" t="str">
@@ -5144,11 +5144,11 @@
         <v/>
       </c>
       <c r="D45" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L45" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M45" s="24" t="str">
@@ -5156,15 +5156,15 @@
         <v/>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S45" t="str">
@@ -5172,19 +5172,19 @@
         <v/>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X45" t="str">
@@ -5198,11 +5198,11 @@
         <v/>
       </c>
       <c r="D46" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L46" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M46" s="24" t="str">
@@ -5210,15 +5210,15 @@
         <v/>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S46" t="str">
@@ -5226,19 +5226,19 @@
         <v/>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X46" t="str">
@@ -5252,11 +5252,11 @@
         <v/>
       </c>
       <c r="D47" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L47" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M47" s="24" t="str">
@@ -5264,15 +5264,15 @@
         <v/>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S47" t="str">
@@ -5280,19 +5280,19 @@
         <v/>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X47" t="str">
@@ -5306,11 +5306,11 @@
         <v/>
       </c>
       <c r="D48" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L48" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M48" s="24" t="str">
@@ -5318,15 +5318,15 @@
         <v/>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S48" t="str">
@@ -5334,19 +5334,19 @@
         <v/>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X48" t="str">
@@ -5360,11 +5360,11 @@
         <v/>
       </c>
       <c r="D49" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L49" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M49" s="24" t="str">
@@ -5372,15 +5372,15 @@
         <v/>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S49" t="str">
@@ -5388,19 +5388,19 @@
         <v/>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X49" t="str">
@@ -5414,11 +5414,11 @@
         <v/>
       </c>
       <c r="D50" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L50" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M50" s="24" t="str">
@@ -5426,15 +5426,15 @@
         <v/>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S50" t="str">
@@ -5442,19 +5442,19 @@
         <v/>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X50" t="str">
@@ -5468,11 +5468,11 @@
         <v/>
       </c>
       <c r="D51" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L51" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M51" s="24" t="str">
@@ -5480,15 +5480,15 @@
         <v/>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S51" t="str">
@@ -5496,19 +5496,19 @@
         <v/>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X51" t="str">
@@ -5522,11 +5522,11 @@
         <v/>
       </c>
       <c r="D52" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L52" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M52" s="24" t="str">
@@ -5534,15 +5534,15 @@
         <v/>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S52" t="str">
@@ -5550,19 +5550,19 @@
         <v/>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X52" t="str">
@@ -5576,11 +5576,11 @@
         <v/>
       </c>
       <c r="D53" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L53" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M53" s="24" t="str">
@@ -5588,15 +5588,15 @@
         <v/>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S53" t="str">
@@ -5604,19 +5604,19 @@
         <v/>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X53" t="str">
@@ -5630,11 +5630,11 @@
         <v/>
       </c>
       <c r="D54" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L54" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M54" s="24" t="str">
@@ -5642,15 +5642,15 @@
         <v/>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S54" t="str">
@@ -5658,19 +5658,19 @@
         <v/>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X54" t="str">
@@ -5684,11 +5684,11 @@
         <v/>
       </c>
       <c r="D55" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L55" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M55" s="24" t="str">
@@ -5696,15 +5696,15 @@
         <v/>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S55" t="str">
@@ -5712,19 +5712,19 @@
         <v/>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X55" t="str">
@@ -5738,11 +5738,11 @@
         <v/>
       </c>
       <c r="D56" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L56" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M56" s="24" t="str">
@@ -5750,15 +5750,15 @@
         <v/>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S56" t="str">
@@ -5766,19 +5766,19 @@
         <v/>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X56" t="str">
@@ -5792,11 +5792,11 @@
         <v/>
       </c>
       <c r="D57" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L57" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M57" s="24" t="str">
@@ -5804,15 +5804,15 @@
         <v/>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q57" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S57" t="str">
@@ -5820,19 +5820,19 @@
         <v/>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X57" t="str">
@@ -5846,11 +5846,11 @@
         <v/>
       </c>
       <c r="D58" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L58" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M58" s="24" t="str">
@@ -5858,15 +5858,15 @@
         <v/>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q58" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S58" t="str">
@@ -5874,19 +5874,19 @@
         <v/>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X58" t="str">
@@ -5900,11 +5900,11 @@
         <v/>
       </c>
       <c r="D59" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L59" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M59" s="24" t="str">
@@ -5912,15 +5912,15 @@
         <v/>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q59" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S59" t="str">
@@ -5928,19 +5928,19 @@
         <v/>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X59" t="str">
@@ -5954,11 +5954,11 @@
         <v/>
       </c>
       <c r="D60" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L60" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" s="24" t="str">
@@ -5966,15 +5966,15 @@
         <v/>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S60" t="str">
@@ -5982,19 +5982,19 @@
         <v/>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X60" t="str">
@@ -6008,11 +6008,11 @@
         <v/>
       </c>
       <c r="D61" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L61" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M61" s="24" t="str">
@@ -6020,15 +6020,15 @@
         <v/>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q61" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S61" t="str">
@@ -6036,19 +6036,19 @@
         <v/>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X61" t="str">
@@ -6062,11 +6062,11 @@
         <v/>
       </c>
       <c r="D62" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L62" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M62" s="24" t="str">
@@ -6074,15 +6074,15 @@
         <v/>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S62" t="str">
@@ -6090,19 +6090,19 @@
         <v/>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X62" t="str">
@@ -6116,11 +6116,11 @@
         <v/>
       </c>
       <c r="D63" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L63" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M63" s="24" t="str">
@@ -6128,15 +6128,15 @@
         <v/>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q63" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S63" t="str">
@@ -6144,19 +6144,19 @@
         <v/>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X63" t="str">
@@ -6170,11 +6170,11 @@
         <v/>
       </c>
       <c r="D64" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L64" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M64" s="24" t="str">
@@ -6182,15 +6182,15 @@
         <v/>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S64" t="str">
@@ -6198,19 +6198,19 @@
         <v/>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X64" t="str">
@@ -6224,11 +6224,11 @@
         <v/>
       </c>
       <c r="D65" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L65" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M65" s="24" t="str">
@@ -6236,15 +6236,15 @@
         <v/>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S65" t="str">
@@ -6252,19 +6252,19 @@
         <v/>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X65" t="str">
@@ -6278,11 +6278,11 @@
         <v/>
       </c>
       <c r="D66" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L66" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M66" s="24" t="str">
@@ -6290,15 +6290,15 @@
         <v/>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q66" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Unknown Character</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S66" t="str">
@@ -6306,19 +6306,19 @@
         <v/>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X66" t="str">
@@ -6336,7 +6336,7 @@
         <v/>
       </c>
       <c r="L67" s="40" t="str">
-        <f t="shared" ref="L67:L130" si="17">IF(OR(ISNUMBER(SEARCH("{image",B67)), ISNUMBER(SEARCH(".png", B67)), ISNUMBER(SEARCH(".jpg", B67))),"x","")</f>
+        <f t="shared" ref="L67:L130" si="17">IF(OR(ISNUMBER(SEARCH("{image",LOWER(B67))), ISNUMBER(SEARCH(".png", LOWER(B67))), ISNUMBER(SEARCH(".jpg", LOWER(B67))), ISNUMBER(SEARCH(".webp", LOWER(B67)))),"x","")</f>
         <v/>
       </c>
       <c r="M67" s="24" t="str">
@@ -9802,7 +9802,7 @@
         <v/>
       </c>
       <c r="L131" s="40" t="str">
-        <f t="shared" ref="L131:L194" si="30">IF(OR(ISNUMBER(SEARCH("{image",B131)), ISNUMBER(SEARCH(".png", B131)), ISNUMBER(SEARCH(".jpg", B131))),"x","")</f>
+        <f t="shared" ref="L131:L194" si="30">IF(OR(ISNUMBER(SEARCH("{image",LOWER(B131))), ISNUMBER(SEARCH(".png", LOWER(B131))), ISNUMBER(SEARCH(".jpg", LOWER(B131))), ISNUMBER(SEARCH(".webp", LOWER(B131)))),"x","")</f>
         <v/>
       </c>
       <c r="M131" s="24" t="str">
@@ -13268,7 +13268,7 @@
         <v/>
       </c>
       <c r="L195" s="40" t="str">
-        <f t="shared" ref="L195:L251" si="43">IF(OR(ISNUMBER(SEARCH("{image",B195)), ISNUMBER(SEARCH(".png", B195)), ISNUMBER(SEARCH(".jpg", B195))),"x","")</f>
+        <f t="shared" ref="L195:L251" si="43">IF(OR(ISNUMBER(SEARCH("{image",LOWER(B195))), ISNUMBER(SEARCH(".png", LOWER(B195))), ISNUMBER(SEARCH(".jpg", LOWER(B195))), ISNUMBER(SEARCH(".webp", LOWER(B195)))),"x","")</f>
         <v/>
       </c>
       <c r="M195" s="24" t="str">

--- a/Script Generator.xlsx
+++ b/Script Generator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawna\Documents\Github\mysterious-messenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawna\Documents\GitHub\mysterious-messenger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67C752-5E3F-4E23-8407-FBB15A4A52D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE50471-1E22-4E73-AAE4-0A424E6A79BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chatroom Instructions" sheetId="9" r:id="rId1"/>
@@ -2608,10 +2608,10 @@
   <dimension ref="A1:X251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2:P251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N2" s="40"/>
       <c r="P2" t="str">
-        <f>IF(B2="","",CONCATENATE(Q2," """,R2,IF(K2&lt;&gt;"","{size=+10}",""),B2,IF(K2&lt;&gt;"","{/size}",""),S2,"""",IF(X2&lt;&gt;"",CONCATENATE(" ",X2),"")))</f>
+        <f>IF(B2="","",CONCATENATE(Q2," """,R2,IF(K2&lt;&gt;"","{size=+10}",""),TRIM(B2),IF(K2&lt;&gt;"","{/size}",""),S2,"""",IF(X2&lt;&gt;"",CONCATENATE(" ",X2),"")))</f>
         <v/>
       </c>
       <c r="Q2" s="1" t="str">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="N3" s="40"/>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="4">IF(B3="","",CONCATENATE(Q3," """,R3,IF(K3&lt;&gt;"","{size=+10}",""),B3,IF(K3&lt;&gt;"","{/size}",""),S3,"""",IF(X3&lt;&gt;"",CONCATENATE(" ",X3),"")))</f>
+        <f t="shared" ref="P3:P66" si="4">IF(B3="","",CONCATENATE(Q3," """,R3,IF(K3&lt;&gt;"","{size=+10}",""),TRIM(B3),IF(K3&lt;&gt;"","{/size}",""),S3,"""",IF(X3&lt;&gt;"",CONCATENATE(" ",X3),"")))</f>
         <v/>
       </c>
       <c r="Q3" s="1" t="str">
@@ -6344,7 +6344,7 @@
         <v/>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P130" si="19">IF(B67="","",CONCATENATE(Q67," """,R67,IF(K67&lt;&gt;"","{size=+10}",""),B67,IF(K67&lt;&gt;"","{/size}",""),S67,"""",IF(X67&lt;&gt;"",CONCATENATE(" ",X67),"")))</f>
+        <f t="shared" ref="P67:P130" si="19">IF(B67="","",CONCATENATE(Q67," """,R67,IF(K67&lt;&gt;"","{size=+10}",""),TRIM(B67),IF(K67&lt;&gt;"","{/size}",""),S67,"""",IF(X67&lt;&gt;"",CONCATENATE(" ",X67),"")))</f>
         <v/>
       </c>
       <c r="Q67" s="1" t="str">
@@ -9810,7 +9810,7 @@
         <v/>
       </c>
       <c r="P131" t="str">
-        <f t="shared" ref="P131:P194" si="32">IF(B131="","",CONCATENATE(Q131," """,R131,IF(K131&lt;&gt;"","{size=+10}",""),B131,IF(K131&lt;&gt;"","{/size}",""),S131,"""",IF(X131&lt;&gt;"",CONCATENATE(" ",X131),"")))</f>
+        <f t="shared" ref="P131:P194" si="32">IF(B131="","",CONCATENATE(Q131," """,R131,IF(K131&lt;&gt;"","{size=+10}",""),TRIM(B131),IF(K131&lt;&gt;"","{/size}",""),S131,"""",IF(X131&lt;&gt;"",CONCATENATE(" ",X131),"")))</f>
         <v/>
       </c>
       <c r="Q131" s="1" t="str">
@@ -13276,7 +13276,7 @@
         <v/>
       </c>
       <c r="P195" t="str">
-        <f t="shared" ref="P195:P251" si="45">IF(B195="","",CONCATENATE(Q195," """,R195,IF(K195&lt;&gt;"","{size=+10}",""),B195,IF(K195&lt;&gt;"","{/size}",""),S195,"""",IF(X195&lt;&gt;"",CONCATENATE(" ",X195),"")))</f>
+        <f t="shared" ref="P195:P251" si="45">IF(B195="","",CONCATENATE(Q195," """,R195,IF(K195&lt;&gt;"","{size=+10}",""),TRIM(B195),IF(K195&lt;&gt;"","{/size}",""),S195,"""",IF(X195&lt;&gt;"",CONCATENATE(" ",X195),"")))</f>
         <v/>
       </c>
       <c r="Q195" s="1" t="str">
